--- a/eoso.xlsx
+++ b/eoso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmigu\OneDrive\Escritorio\MOP\Greenhouse_shared\DataAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/onavarrete_earth_ac_cr/Documents/FLORIDALMA_DEF/MOP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8465FAA3-ABCF-44DE-922F-B1A81E65D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8465FAA3-ABCF-44DE-922F-B1A81E65D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE41074-D3EB-43F2-B581-C587539BE08C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
   </bookViews>
   <sheets>
     <sheet name="07022024" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="labels" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'07022024'!$D$1:$G$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'07022024'!$A$1:$H$289</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -336,9 +336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -482,7 +482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -624,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DD1A55-2AC3-4D20-8CC4-0A6E8CC8FE71}">
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="H169" sqref="H169:H289"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8417,7 +8417,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:G289" xr:uid="{A8DD1A55-2AC3-4D20-8CC4-0A6E8CC8FE71}"/>
+  <autoFilter ref="A1:H289" xr:uid="{A8DD1A55-2AC3-4D20-8CC4-0A6E8CC8FE71}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/eoso.xlsx
+++ b/eoso.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/onavarrete_earth_ac_cr/Documents/FLORIDALMA_DEF/MOP2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmigu\OneDrive\Escritorio\MOP2\MOP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8465FAA3-ABCF-44DE-922F-B1A81E65D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE41074-D3EB-43F2-B581-C587539BE08C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF06EAB-E048-463A-8D80-FF4D990B3AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
   </bookViews>
   <sheets>
     <sheet name="07022024" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
-    <sheet name="labels" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="labels" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'07022024'!$A$1:$H$289</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>whole plant weight (g)</t>
   </si>
@@ -87,12 +88,30 @@
   <si>
     <t>bucket</t>
   </si>
+  <si>
+    <t>n_level</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +126,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -261,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -284,11 +314,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -318,6 +372,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -482,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -624,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DD1A55-2AC3-4D20-8CC4-0A6E8CC8FE71}">
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -8423,6 +8491,447 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EB23DA-C988-4571-87B0-77AA64A01D8C}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E2" s="32">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.751</v>
+      </c>
+      <c r="E3" s="32">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E4" s="32">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="E5" s="32">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="33">
+        <v>5</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1.175</v>
+      </c>
+      <c r="E6" s="32">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="33">
+        <v>6</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="E7" s="32">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="33">
+        <v>7</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E8" s="32">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="33">
+        <v>8</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E9" s="31">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="33">
+        <v>9</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="E10" s="32">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="33">
+        <v>10</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="E11" s="31">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="33">
+        <v>11</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1.099</v>
+      </c>
+      <c r="E12" s="31">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33">
+        <v>12</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="E13" s="31">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0</v>
+      </c>
+      <c r="D14" s="33">
+        <v>1.694</v>
+      </c>
+      <c r="E14" s="33">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="33">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="33">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="E15" s="31">
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="33">
+        <v>3</v>
+      </c>
+      <c r="C16" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="33">
+        <v>2.1269999999999998</v>
+      </c>
+      <c r="E16" s="31">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="33">
+        <v>4</v>
+      </c>
+      <c r="C17" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="31">
+        <v>2.363</v>
+      </c>
+      <c r="E17" s="32">
+        <v>16.739999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33">
+        <v>5</v>
+      </c>
+      <c r="C18" s="33">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="E18" s="31">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33">
+        <v>6</v>
+      </c>
+      <c r="C19" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="33">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="E19" s="31">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="33">
+        <v>7</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0</v>
+      </c>
+      <c r="D20" s="33">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="E20" s="31">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="33">
+        <v>8</v>
+      </c>
+      <c r="C21" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="33">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="E21" s="33">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="33">
+        <v>9</v>
+      </c>
+      <c r="C22" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="33">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="E22" s="31">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="33">
+        <v>10</v>
+      </c>
+      <c r="C23" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="33">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="E23" s="31">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="33">
+        <v>11</v>
+      </c>
+      <c r="C24" s="33">
+        <v>1</v>
+      </c>
+      <c r="D24" s="31">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="E24" s="31">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="33">
+        <v>12</v>
+      </c>
+      <c r="C25" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="31">
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="E25" s="31">
+        <v>10.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3488B-DBB5-4F89-BDC8-810101439028}">
   <dimension ref="A1:D61"/>
   <sheetViews>
@@ -9291,7 +9800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7B2B13-A060-429A-B262-9AE217C973FB}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/eoso.xlsx
+++ b/eoso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmigu\OneDrive\Escritorio\MOP2\MOP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF06EAB-E048-463A-8D80-FF4D990B3AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE2B3B2-8004-4DF3-9689-16389C110BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
   </bookViews>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -385,7 +385,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8514,7 +8513,7 @@
       <c r="E1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
     </row>

--- a/eoso.xlsx
+++ b/eoso.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmigu\OneDrive\Escritorio\MOP2\MOP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE2B3B2-8004-4DF3-9689-16389C110BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC95D03-6600-4B3A-9B9B-3700D3DA9F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
   </bookViews>
   <sheets>
     <sheet name="07022024" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
-    <sheet name="labels" sheetId="2" r:id="rId4"/>
+    <sheet name="Drainge" sheetId="5" r:id="rId4"/>
+    <sheet name="labels" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'07022024'!$A$1:$H$289</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>whole plant weight (g)</t>
   </si>
@@ -106,12 +107,54 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>net weight (drainage and irrigation in ml/day)</t>
+  </si>
+  <si>
+    <t>on the previous day the drainage was emptied right after the irrigation ended. So we collected two days of draiange with one irrigation event.</t>
+  </si>
+  <si>
+    <t>on the previous day the drainage was emptied right after the irrigation ended. So we collected three days of draiange with two irrigation event.</t>
+  </si>
+  <si>
+    <t>There was no irrigation on 19/10</t>
+  </si>
+  <si>
+    <t>3-Dec</t>
+  </si>
+  <si>
+    <t>10-Dec</t>
+  </si>
+  <si>
+    <t>17-Dec</t>
+  </si>
+  <si>
+    <t>24-Dec</t>
+  </si>
+  <si>
+    <t>31-Dec</t>
+  </si>
+  <si>
+    <t>7-Jan</t>
+  </si>
+  <si>
+    <t>14-Jan</t>
+  </si>
+  <si>
+    <t>21-Jan</t>
+  </si>
+  <si>
+    <t>29-Jan</t>
+  </si>
+  <si>
+    <t>#VALUE!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +181,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="467">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +340,2654 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE2E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB5B7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87C7E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88486"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD7DA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEAED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC5C8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFBFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFAFD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF4F7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFBFE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACED0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFD1EA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D4EB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD3D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABBBE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99EA0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABCBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF9FC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9ACAE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDDE0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1DEF0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACFD1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAD9EE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF1FA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEDCEF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC1C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF2FA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECF1FA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3DFF1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E3F3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACFD2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD6D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD0D3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF8FA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF3F6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFDCEF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EFF9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABFC1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACDD0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFBFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6290C9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF3FB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE7F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACED1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE1E4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EEF8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB4B7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A9AC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACACC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDEE1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEDF0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE3E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC9CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDADD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC6C9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE3E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE7EA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A4A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7FD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A5A7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99D9F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACDCF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEBEE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDCDF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF86C6E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5E8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF5F8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABCBE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8EEF8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEEF1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F5FC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF0F3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F5FC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE4F3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB3B6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC5C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD5D7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD9DC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC4C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD1D4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF3F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F8FD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E8F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB8BB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDDBEF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDADC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABEC0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99FA1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDEE0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBD9EE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF6F9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9ABAD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE6E9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F3FB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9FAFE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EDF8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABABC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2D3EB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACBCD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE6F4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDBDE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF1F4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF86A9D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD0D2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5ECF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A8AC6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6390C9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB3B5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6995CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABBBD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF2FA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD2D5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F6FC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF8FB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9AB7DD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBED1EA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97B5DC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E0F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E4F3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD6D8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A8AA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8888A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87E80"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD8DB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF86D6F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE8EB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE1E3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE0E3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB6B8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC2C5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB7BA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF1F3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACCCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DB9DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DA3D3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EBADE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5BFE1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC0C2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A5D4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92B2DA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF709ACE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFCFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2C8E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0DDF0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2BDE0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6693CB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DA2D2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87A9D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B0D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E3F3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1C8E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1C7E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3C9E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7099CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADC5E4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5CAE6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7C1E2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729BCF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6592CA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF759DD0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6793CB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBDAEE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E8DC8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FBBDF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9D8ED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BADD8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F8DC8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89ABD7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5C8CC7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF82A6D4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FB0D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D5EC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83A7D5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8D8ED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF749DD0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6491CA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C0E1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96B5DC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2DEF0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E98CD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEBED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F6FC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8FAFE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCCFE9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F4FB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC0C3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABC3E3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1D2EA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBACEE8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE7E9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEC6E4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF6F8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF7FA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D6EC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9AFB1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CAE6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9B1B3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC7CA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE9EB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF2F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9B0B2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABDC0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBCEE8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F4FB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99C9F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD0E9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A2A4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A4A7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F7FD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF85A8D5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACACD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EAF6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D5EC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4EBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFDDF0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9ABAE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBECEF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E9F6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC8CB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDFE2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EDF8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9AEB1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9989B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98E91"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8898B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9B0B3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99DA0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC6C8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A3A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE9EC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0C7E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD4D7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F8FD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1BCDF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE2E4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC9CB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3BEE0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E9F6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF0F9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0BCDF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EAF6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1D3EB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDBDD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE6E8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9ADAF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A6A9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A9AB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81A6D4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9CDE8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9B1B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9AEB0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC7C9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD5D8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC2C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC2E2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC3C6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF79A0D1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CB9DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACCCF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE8F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABFC2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF0F9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EAFD9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABEC1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9C2E2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEFF2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB7B9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99FA2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88B8E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88386"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88C8E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDAEE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6BFE1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D98CD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B96CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6492CA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CADD8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7CBE7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7BA1D2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF739CCF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEC5E4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7C0E1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACC4E3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE5F4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99B6DC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6C97CD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F8EC8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A96CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FA4D3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD1D3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8D7ED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2DFF1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC1C3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A3A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABABD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9ACAF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9ADB0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB8BA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A0A2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD9DB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEAEC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3FB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB4B6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0D2EA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBED0E9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB9BC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDFE1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88285"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88183"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFAFC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4BEE0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8C1E2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC8CA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A1A3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE8EA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99597"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88284"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88082"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A7AA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A5A8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF86F71"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8787A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD8DA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC3C5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9999C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87D7F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99A9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87A7D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1FA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF86A6C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98E90"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB6B9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99396"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD3D5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8878A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88688"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87A7C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8797B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEFF9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DBADE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEDBEF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBECEE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99EA1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87678"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEDEF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88689"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A6A8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8888B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87476"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87375"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEEF0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF769ED0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BB8DD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98F91"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A7A9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB9BB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7D7ED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6CBE7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0C6E4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF608FC9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DAED8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94B3DB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE5F4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6F99CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CA2D2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4ECF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D97CD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF618FC9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6ECF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88ABD7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7CCE7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88A8D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6391CA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89ACD7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE7F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB2B5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87173"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF4F6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99C9E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87477"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99395"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7EA3D3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A0A3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3C8E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9AFB2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACBCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98F92"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88587"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9A1A4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CB9DD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCCFE8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC6C9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AA1D1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9CDE7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E9F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0C7E4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6CBE6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE7F4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98A8C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC0C3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E3F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC7CA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F7FC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB8BA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC4C6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF5F8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8AACD7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE1E4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCACC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EFF8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9395"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE0E3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF8FB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFC1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE8EB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EDF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCBCD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCCCF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF7FA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD1D3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -338,11 +3034,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -383,6 +3150,461 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="138" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="152" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="180" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="181" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="183" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="187" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="188" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="189" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="190" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="191" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="192" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="193" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="194" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="195" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="196" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="197" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="198" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="199" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="200" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="201" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="202" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="203" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="204" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="205" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="206" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="207" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="208" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="209" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="210" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="211" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="212" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="213" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="214" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="215" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="216" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="217" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="218" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="219" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="220" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="221" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="222" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="223" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="224" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="225" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="226" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="227" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="228" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="229" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="230" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="231" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="232" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="233" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="234" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="235" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="236" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="237" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="238" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="239" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="240" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="241" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="242" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="243" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="244" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="245" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="246" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="247" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="248" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="249" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="250" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="251" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="252" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="253" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="254" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="255" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="256" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="257" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="258" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="259" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="260" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="261" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="262" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="263" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="264" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="265" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="266" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="267" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="268" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="269" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="270" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="271" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="272" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="273" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="274" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="275" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="276" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="277" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="278" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="279" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="280" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="281" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="282" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="283" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="284" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="285" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="286" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="287" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="288" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="289" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="290" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="291" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="292" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="293" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="294" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="295" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="296" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="297" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="298" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="299" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="300" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="301" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="302" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="303" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="304" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="305" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="306" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="307" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="308" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="309" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="310" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="311" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="312" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="313" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="314" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="315" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="316" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="317" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="318" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="319" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="320" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="321" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="322" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="323" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="324" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="325" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="326" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="327" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="328" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="329" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="330" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="331" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="332" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="333" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="334" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="335" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="336" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="337" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="338" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="339" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="340" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="341" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="342" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="343" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="344" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="345" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="346" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="347" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="348" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="349" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="350" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="351" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="352" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="353" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="354" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="355" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="356" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="357" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="358" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="359" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="360" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="361" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="362" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="363" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="364" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="365" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="366" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="367" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="368" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="369" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="370" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="371" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="372" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="373" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="374" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="375" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="376" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="377" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="378" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="379" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="380" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="381" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="382" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="383" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="384" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="385" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="386" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="387" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="388" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="389" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="390" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="391" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="392" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="393" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="394" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="395" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="396" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="397" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="398" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="399" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="400" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="401" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="402" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="403" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="404" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="405" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="406" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="407" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="408" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="409" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="410" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="411" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="412" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="413" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="414" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="415" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="416" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="417" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="418" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="419" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="420" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="421" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="422" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="423" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="424" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="425" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="426" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="427" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="428" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="429" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="430" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="431" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="432" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="433" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="434" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="435" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="436" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="437" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="438" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="439" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="440" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="441" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="442" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="443" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="444" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="445" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="446" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="447" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="448" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="449" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="450" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="451" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="452" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="453" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="454" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="455" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="456" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="457" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="458" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="459" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="460" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="461" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="462" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="463" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="464" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="465" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="466" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8493,7 +11715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EB23DA-C988-4571-87B0-77AA64A01D8C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -9800,6 +13022,5920 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA00F1D-24E5-4471-BBDD-A4C3B9018803}">
+  <dimension ref="A1:U103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="484" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="484"/>
+      <c r="C1" s="484"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="484"/>
+      <c r="F1" s="484"/>
+      <c r="G1" s="484"/>
+      <c r="H1" s="484"/>
+      <c r="I1" s="484"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="36">
+        <v>45555</v>
+      </c>
+      <c r="B3" s="36">
+        <v>45561</v>
+      </c>
+      <c r="C3" s="36">
+        <v>45569</v>
+      </c>
+      <c r="D3" s="36">
+        <v>45580</v>
+      </c>
+      <c r="E3" s="36">
+        <v>45584</v>
+      </c>
+      <c r="F3" s="36">
+        <v>45587</v>
+      </c>
+      <c r="G3" s="36">
+        <v>45594</v>
+      </c>
+      <c r="H3" s="36">
+        <v>45601</v>
+      </c>
+      <c r="I3" s="36">
+        <v>45608</v>
+      </c>
+      <c r="J3" s="36">
+        <v>45615</v>
+      </c>
+      <c r="K3" s="36">
+        <v>45622</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="35">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="37">
+        <v>822</v>
+      </c>
+      <c r="B4" s="38">
+        <v>674</v>
+      </c>
+      <c r="C4" s="39">
+        <v>799</v>
+      </c>
+      <c r="D4" s="40">
+        <v>707</v>
+      </c>
+      <c r="E4" s="41">
+        <v>782</v>
+      </c>
+      <c r="F4" s="42">
+        <v>469</v>
+      </c>
+      <c r="G4" s="43">
+        <v>326</v>
+      </c>
+      <c r="H4" s="44">
+        <v>336</v>
+      </c>
+      <c r="I4" s="41">
+        <v>397</v>
+      </c>
+      <c r="J4" s="45">
+        <v>557</v>
+      </c>
+      <c r="K4" s="46">
+        <v>457</v>
+      </c>
+      <c r="L4" s="47">
+        <v>365</v>
+      </c>
+      <c r="M4" s="48">
+        <v>386</v>
+      </c>
+      <c r="N4" s="49">
+        <v>389</v>
+      </c>
+      <c r="O4" s="50">
+        <v>258</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="52">
+        <v>322</v>
+      </c>
+      <c r="R4" s="53">
+        <v>406</v>
+      </c>
+      <c r="S4" s="54">
+        <v>659</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="55">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="56">
+        <v>796</v>
+      </c>
+      <c r="B5" s="57">
+        <v>680</v>
+      </c>
+      <c r="C5" s="58">
+        <v>841</v>
+      </c>
+      <c r="D5" s="59">
+        <v>802</v>
+      </c>
+      <c r="E5" s="60">
+        <v>920</v>
+      </c>
+      <c r="F5" s="61">
+        <v>577</v>
+      </c>
+      <c r="G5" s="62">
+        <v>291</v>
+      </c>
+      <c r="H5" s="63">
+        <v>503</v>
+      </c>
+      <c r="I5" s="64">
+        <v>385</v>
+      </c>
+      <c r="J5" s="65">
+        <v>638</v>
+      </c>
+      <c r="K5" s="66">
+        <v>462</v>
+      </c>
+      <c r="L5" s="67">
+        <v>449</v>
+      </c>
+      <c r="M5" s="68">
+        <v>516</v>
+      </c>
+      <c r="N5" s="69">
+        <v>568</v>
+      </c>
+      <c r="O5" s="70">
+        <v>224</v>
+      </c>
+      <c r="P5" s="63">
+        <v>555</v>
+      </c>
+      <c r="Q5" s="71">
+        <v>445</v>
+      </c>
+      <c r="R5" s="72">
+        <v>451</v>
+      </c>
+      <c r="S5" s="73">
+        <v>595</v>
+      </c>
+      <c r="T5" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="74">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="75">
+        <v>790</v>
+      </c>
+      <c r="B6" s="76">
+        <v>705</v>
+      </c>
+      <c r="C6" s="77">
+        <v>903</v>
+      </c>
+      <c r="D6" s="78">
+        <v>901</v>
+      </c>
+      <c r="E6" s="79">
+        <v>893</v>
+      </c>
+      <c r="F6" s="80">
+        <v>733</v>
+      </c>
+      <c r="G6" s="81">
+        <v>417</v>
+      </c>
+      <c r="H6" s="82">
+        <v>328</v>
+      </c>
+      <c r="I6" s="83">
+        <v>382</v>
+      </c>
+      <c r="J6" s="84">
+        <v>557</v>
+      </c>
+      <c r="K6" s="85">
+        <v>524</v>
+      </c>
+      <c r="L6" s="86">
+        <v>440</v>
+      </c>
+      <c r="M6" s="72">
+        <v>452</v>
+      </c>
+      <c r="N6" s="87">
+        <v>504</v>
+      </c>
+      <c r="O6" s="88">
+        <v>260</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="89">
+        <v>312</v>
+      </c>
+      <c r="R6" s="53">
+        <v>406</v>
+      </c>
+      <c r="S6" s="90">
+        <v>529</v>
+      </c>
+      <c r="T6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="73">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="91">
+        <v>743</v>
+      </c>
+      <c r="B7" s="92">
+        <v>663</v>
+      </c>
+      <c r="C7" s="93">
+        <v>895</v>
+      </c>
+      <c r="D7" s="94">
+        <v>859</v>
+      </c>
+      <c r="E7" s="95">
+        <v>870</v>
+      </c>
+      <c r="F7" s="96">
+        <v>666</v>
+      </c>
+      <c r="G7" s="48">
+        <v>375</v>
+      </c>
+      <c r="H7" s="97">
+        <v>340</v>
+      </c>
+      <c r="I7" s="98">
+        <v>402</v>
+      </c>
+      <c r="J7" s="99">
+        <v>465</v>
+      </c>
+      <c r="K7" s="100">
+        <v>407</v>
+      </c>
+      <c r="L7" s="89">
+        <v>312</v>
+      </c>
+      <c r="M7" s="98">
+        <v>293</v>
+      </c>
+      <c r="N7" s="101">
+        <v>330</v>
+      </c>
+      <c r="O7" s="102">
+        <v>141</v>
+      </c>
+      <c r="P7" s="103">
+        <v>417</v>
+      </c>
+      <c r="Q7" s="104">
+        <v>145</v>
+      </c>
+      <c r="R7" s="105">
+        <v>122</v>
+      </c>
+      <c r="S7" s="106">
+        <v>316</v>
+      </c>
+      <c r="T7" s="72">
+        <v>454</v>
+      </c>
+      <c r="U7" s="107">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="108">
+        <v>812</v>
+      </c>
+      <c r="B8" s="109">
+        <v>607</v>
+      </c>
+      <c r="C8" s="88">
+        <v>901</v>
+      </c>
+      <c r="D8" s="110">
+        <v>871</v>
+      </c>
+      <c r="E8" s="111">
+        <v>904</v>
+      </c>
+      <c r="F8" s="112">
+        <v>603</v>
+      </c>
+      <c r="G8" s="107">
+        <v>329</v>
+      </c>
+      <c r="H8" s="113">
+        <v>449</v>
+      </c>
+      <c r="I8" s="114">
+        <v>431</v>
+      </c>
+      <c r="J8" s="115">
+        <v>572</v>
+      </c>
+      <c r="K8" s="37">
+        <v>407</v>
+      </c>
+      <c r="L8" s="116">
+        <v>355</v>
+      </c>
+      <c r="M8" s="117">
+        <v>430</v>
+      </c>
+      <c r="N8" s="118">
+        <v>522</v>
+      </c>
+      <c r="O8" s="119">
+        <v>185</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="120">
+        <v>233</v>
+      </c>
+      <c r="R8" s="83">
+        <v>257</v>
+      </c>
+      <c r="S8" s="121">
+        <v>340</v>
+      </c>
+      <c r="T8" s="111">
+        <v>384</v>
+      </c>
+      <c r="U8" s="122">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="123">
+        <v>903</v>
+      </c>
+      <c r="B9" s="124">
+        <v>707</v>
+      </c>
+      <c r="C9" s="125">
+        <v>888</v>
+      </c>
+      <c r="D9" s="89">
+        <v>863</v>
+      </c>
+      <c r="E9" s="95">
+        <v>871</v>
+      </c>
+      <c r="F9" s="126">
+        <v>637</v>
+      </c>
+      <c r="G9" s="116">
+        <v>342</v>
+      </c>
+      <c r="H9" s="49">
+        <v>405</v>
+      </c>
+      <c r="I9" s="127">
+        <v>438</v>
+      </c>
+      <c r="J9" s="96">
+        <v>514</v>
+      </c>
+      <c r="K9" s="46">
+        <v>457</v>
+      </c>
+      <c r="L9" s="84">
+        <v>394</v>
+      </c>
+      <c r="M9" s="128">
+        <v>410</v>
+      </c>
+      <c r="N9" s="129">
+        <v>499</v>
+      </c>
+      <c r="O9" s="130">
+        <v>199</v>
+      </c>
+      <c r="P9" s="131">
+        <v>572</v>
+      </c>
+      <c r="Q9" s="64">
+        <v>261</v>
+      </c>
+      <c r="R9" s="132">
+        <v>292</v>
+      </c>
+      <c r="S9" s="79">
+        <v>434</v>
+      </c>
+      <c r="T9" s="68">
+        <v>509</v>
+      </c>
+      <c r="U9" s="66">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="70">
+        <v>766</v>
+      </c>
+      <c r="B10" s="133">
+        <v>682</v>
+      </c>
+      <c r="C10" s="134">
+        <v>842</v>
+      </c>
+      <c r="D10" s="135">
+        <v>858</v>
+      </c>
+      <c r="E10" s="42">
+        <v>331</v>
+      </c>
+      <c r="F10" s="136">
+        <v>736</v>
+      </c>
+      <c r="G10" s="137">
+        <v>359</v>
+      </c>
+      <c r="H10" s="66">
+        <v>418</v>
+      </c>
+      <c r="I10" s="138">
+        <v>333</v>
+      </c>
+      <c r="J10" s="139">
+        <v>518</v>
+      </c>
+      <c r="K10" s="140">
+        <v>465</v>
+      </c>
+      <c r="L10" s="141">
+        <v>399</v>
+      </c>
+      <c r="M10" s="49">
+        <v>389</v>
+      </c>
+      <c r="N10" s="142">
+        <v>470</v>
+      </c>
+      <c r="O10" s="143">
+        <v>203</v>
+      </c>
+      <c r="P10" s="144">
+        <v>616</v>
+      </c>
+      <c r="Q10" s="145">
+        <v>250</v>
+      </c>
+      <c r="R10" s="62">
+        <v>301</v>
+      </c>
+      <c r="S10" s="146">
+        <v>541</v>
+      </c>
+      <c r="T10" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="147">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="148">
+        <v>810</v>
+      </c>
+      <c r="B11" s="149">
+        <v>729</v>
+      </c>
+      <c r="C11" s="93">
+        <v>895</v>
+      </c>
+      <c r="D11" s="150">
+        <v>1181</v>
+      </c>
+      <c r="E11" s="151">
+        <v>750</v>
+      </c>
+      <c r="F11" s="152">
+        <v>720</v>
+      </c>
+      <c r="G11" s="153">
+        <v>730</v>
+      </c>
+      <c r="H11" s="154">
+        <v>752</v>
+      </c>
+      <c r="I11" s="155">
+        <v>344</v>
+      </c>
+      <c r="J11" s="48">
+        <v>552</v>
+      </c>
+      <c r="K11" s="156">
+        <v>521</v>
+      </c>
+      <c r="L11" s="117">
+        <v>426</v>
+      </c>
+      <c r="M11" s="53">
+        <v>406</v>
+      </c>
+      <c r="N11" s="90">
+        <v>469</v>
+      </c>
+      <c r="O11" s="157">
+        <v>206</v>
+      </c>
+      <c r="P11" s="158">
+        <v>447</v>
+      </c>
+      <c r="Q11" s="159">
+        <v>270</v>
+      </c>
+      <c r="R11" s="59">
+        <v>210</v>
+      </c>
+      <c r="S11" s="145">
+        <v>310</v>
+      </c>
+      <c r="T11" s="43">
+        <v>352</v>
+      </c>
+      <c r="U11" s="88">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="107">
+        <v>838</v>
+      </c>
+      <c r="B12" s="160">
+        <v>748</v>
+      </c>
+      <c r="C12" s="161">
+        <v>953</v>
+      </c>
+      <c r="D12" s="45">
+        <v>914</v>
+      </c>
+      <c r="E12" s="116">
+        <v>880</v>
+      </c>
+      <c r="F12" s="162">
+        <v>766</v>
+      </c>
+      <c r="G12" s="160">
+        <v>395</v>
+      </c>
+      <c r="H12" s="49">
+        <v>405</v>
+      </c>
+      <c r="I12" s="163">
+        <v>488</v>
+      </c>
+      <c r="J12" s="60">
+        <v>549</v>
+      </c>
+      <c r="K12" s="164">
+        <v>502</v>
+      </c>
+      <c r="L12" s="72">
+        <v>451</v>
+      </c>
+      <c r="M12" s="81">
+        <v>461</v>
+      </c>
+      <c r="N12" s="74">
+        <v>528</v>
+      </c>
+      <c r="O12" s="88">
+        <v>260</v>
+      </c>
+      <c r="P12" s="165">
+        <v>543</v>
+      </c>
+      <c r="Q12" s="86">
+        <v>440</v>
+      </c>
+      <c r="R12" s="72">
+        <v>452</v>
+      </c>
+      <c r="S12" s="166">
+        <v>575</v>
+      </c>
+      <c r="T12" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="63">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="167">
+        <v>801</v>
+      </c>
+      <c r="B13" s="168">
+        <v>662</v>
+      </c>
+      <c r="C13" s="169">
+        <v>813</v>
+      </c>
+      <c r="D13" s="170">
+        <v>698</v>
+      </c>
+      <c r="E13" s="171">
+        <v>784</v>
+      </c>
+      <c r="F13" s="172">
+        <v>475</v>
+      </c>
+      <c r="G13" s="173">
+        <v>321</v>
+      </c>
+      <c r="H13" s="92">
+        <v>301</v>
+      </c>
+      <c r="I13" s="76">
+        <v>396</v>
+      </c>
+      <c r="J13" s="174">
+        <v>509</v>
+      </c>
+      <c r="K13" s="110">
+        <v>413</v>
+      </c>
+      <c r="L13" s="175">
+        <v>320</v>
+      </c>
+      <c r="M13" s="94">
+        <v>306</v>
+      </c>
+      <c r="N13" s="176">
+        <v>310</v>
+      </c>
+      <c r="O13" s="177">
+        <v>191</v>
+      </c>
+      <c r="P13" s="72">
+        <v>452</v>
+      </c>
+      <c r="Q13" s="178">
+        <v>226</v>
+      </c>
+      <c r="R13" s="119">
+        <v>184</v>
+      </c>
+      <c r="S13" s="179">
+        <v>250</v>
+      </c>
+      <c r="T13" s="180">
+        <v>371</v>
+      </c>
+      <c r="U13" s="181">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="182">
+        <v>955.25</v>
+      </c>
+      <c r="B14" s="183">
+        <v>867</v>
+      </c>
+      <c r="C14" s="184">
+        <v>1115</v>
+      </c>
+      <c r="D14" s="185">
+        <v>1110</v>
+      </c>
+      <c r="E14" s="186">
+        <v>1107</v>
+      </c>
+      <c r="F14" s="144">
+        <v>742</v>
+      </c>
+      <c r="G14" s="165">
+        <v>464</v>
+      </c>
+      <c r="H14" s="187">
+        <v>686</v>
+      </c>
+      <c r="I14" s="188">
+        <v>514</v>
+      </c>
+      <c r="J14" s="189">
+        <v>790</v>
+      </c>
+      <c r="K14" s="190">
+        <v>460</v>
+      </c>
+      <c r="L14" s="191">
+        <v>678</v>
+      </c>
+      <c r="M14" s="192">
+        <v>559</v>
+      </c>
+      <c r="N14" s="193">
+        <v>740</v>
+      </c>
+      <c r="O14" s="46">
+        <v>382</v>
+      </c>
+      <c r="P14" s="194">
+        <v>971</v>
+      </c>
+      <c r="Q14" s="195">
+        <v>533</v>
+      </c>
+      <c r="R14" s="166">
+        <v>524</v>
+      </c>
+      <c r="S14" s="196">
+        <v>872</v>
+      </c>
+      <c r="T14" s="197">
+        <v>777</v>
+      </c>
+      <c r="U14" s="198">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="199">
+        <v>899.25</v>
+      </c>
+      <c r="B15" s="200">
+        <v>814</v>
+      </c>
+      <c r="C15" s="201">
+        <v>1083</v>
+      </c>
+      <c r="D15" s="202">
+        <v>1076</v>
+      </c>
+      <c r="E15" s="42">
+        <v>1068</v>
+      </c>
+      <c r="F15" s="142">
+        <v>719</v>
+      </c>
+      <c r="G15" s="68">
+        <v>448</v>
+      </c>
+      <c r="H15" s="203">
+        <v>723</v>
+      </c>
+      <c r="I15" s="204">
+        <v>498</v>
+      </c>
+      <c r="J15" s="183">
+        <v>768</v>
+      </c>
+      <c r="K15" s="49">
+        <v>460</v>
+      </c>
+      <c r="L15" s="205">
+        <v>664</v>
+      </c>
+      <c r="M15" s="68">
+        <v>516</v>
+      </c>
+      <c r="N15" s="206">
+        <v>718</v>
+      </c>
+      <c r="O15" s="116">
+        <v>354</v>
+      </c>
+      <c r="P15" s="207">
+        <v>927</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>519</v>
+      </c>
+      <c r="R15" s="208">
+        <v>513</v>
+      </c>
+      <c r="S15" s="209">
+        <v>947</v>
+      </c>
+      <c r="T15" s="203">
+        <v>850</v>
+      </c>
+      <c r="U15" s="194">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="210">
+        <v>992.25</v>
+      </c>
+      <c r="B16" s="153">
+        <v>902</v>
+      </c>
+      <c r="C16" s="153">
+        <v>1227</v>
+      </c>
+      <c r="D16" s="211">
+        <v>1252</v>
+      </c>
+      <c r="E16" s="153">
+        <v>1210</v>
+      </c>
+      <c r="F16" s="153">
+        <v>805</v>
+      </c>
+      <c r="G16" s="212">
+        <v>482</v>
+      </c>
+      <c r="H16" s="153">
+        <v>771</v>
+      </c>
+      <c r="I16" s="153">
+        <v>547</v>
+      </c>
+      <c r="J16" s="213">
+        <v>821</v>
+      </c>
+      <c r="K16" s="214">
+        <v>498</v>
+      </c>
+      <c r="L16" s="184">
+        <v>756</v>
+      </c>
+      <c r="M16" s="215">
+        <v>586</v>
+      </c>
+      <c r="N16" s="216">
+        <v>827</v>
+      </c>
+      <c r="O16" s="66">
+        <v>413</v>
+      </c>
+      <c r="P16" s="217">
+        <v>1001</v>
+      </c>
+      <c r="Q16" s="215">
+        <v>586</v>
+      </c>
+      <c r="R16" s="212">
+        <v>577</v>
+      </c>
+      <c r="S16" s="209">
+        <v>949</v>
+      </c>
+      <c r="T16" s="210">
+        <v>832</v>
+      </c>
+      <c r="U16" s="218">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="194">
+        <v>1006.25</v>
+      </c>
+      <c r="B17" s="219">
+        <v>900</v>
+      </c>
+      <c r="C17" s="220">
+        <v>1161</v>
+      </c>
+      <c r="D17" s="221">
+        <v>1159</v>
+      </c>
+      <c r="E17" s="222">
+        <v>1160</v>
+      </c>
+      <c r="F17" s="223">
+        <v>780</v>
+      </c>
+      <c r="G17" s="224">
+        <v>490</v>
+      </c>
+      <c r="H17" s="225">
+        <v>712</v>
+      </c>
+      <c r="I17" s="226">
+        <v>541</v>
+      </c>
+      <c r="J17" s="153">
+        <v>827</v>
+      </c>
+      <c r="K17" s="185">
+        <v>496</v>
+      </c>
+      <c r="L17" s="227">
+        <v>723</v>
+      </c>
+      <c r="M17" s="136">
+        <v>580</v>
+      </c>
+      <c r="N17" s="228">
+        <v>784</v>
+      </c>
+      <c r="O17" s="45">
+        <v>395</v>
+      </c>
+      <c r="P17" s="153">
+        <v>1017</v>
+      </c>
+      <c r="Q17" s="192">
+        <v>559</v>
+      </c>
+      <c r="R17" s="229">
+        <v>553</v>
+      </c>
+      <c r="S17" s="230">
+        <v>919</v>
+      </c>
+      <c r="T17" s="183">
+        <v>807</v>
+      </c>
+      <c r="U17" s="185">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="190">
+        <v>867</v>
+      </c>
+      <c r="B18" s="130">
+        <v>677</v>
+      </c>
+      <c r="C18" s="231">
+        <v>936</v>
+      </c>
+      <c r="D18" s="232">
+        <v>929</v>
+      </c>
+      <c r="E18" s="84">
+        <v>932</v>
+      </c>
+      <c r="F18" s="79">
+        <v>692</v>
+      </c>
+      <c r="G18" s="233">
+        <v>384</v>
+      </c>
+      <c r="H18" s="137">
+        <v>397</v>
+      </c>
+      <c r="I18" s="123">
+        <v>474</v>
+      </c>
+      <c r="J18" s="103">
+        <v>566</v>
+      </c>
+      <c r="K18" s="234">
+        <v>486</v>
+      </c>
+      <c r="L18" s="235">
+        <v>436</v>
+      </c>
+      <c r="M18" s="72">
+        <v>451</v>
+      </c>
+      <c r="N18" s="236">
+        <v>537</v>
+      </c>
+      <c r="O18" s="237">
+        <v>221</v>
+      </c>
+      <c r="P18" s="238">
+        <v>703</v>
+      </c>
+      <c r="Q18" s="149">
+        <v>356</v>
+      </c>
+      <c r="R18" s="128">
+        <v>410</v>
+      </c>
+      <c r="S18" s="239">
+        <v>654</v>
+      </c>
+      <c r="T18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" s="240">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="236">
+        <v>902</v>
+      </c>
+      <c r="B19" s="49">
+        <v>739</v>
+      </c>
+      <c r="C19" s="241">
+        <v>931</v>
+      </c>
+      <c r="D19" s="53">
+        <v>918</v>
+      </c>
+      <c r="E19" s="242">
+        <v>940</v>
+      </c>
+      <c r="F19" s="243">
+        <v>753</v>
+      </c>
+      <c r="G19" s="141">
+        <v>383</v>
+      </c>
+      <c r="H19" s="244">
+        <v>396</v>
+      </c>
+      <c r="I19" s="46">
+        <v>449</v>
+      </c>
+      <c r="J19" s="60">
+        <v>550</v>
+      </c>
+      <c r="K19" s="123">
+        <v>476</v>
+      </c>
+      <c r="L19" s="245">
+        <v>374</v>
+      </c>
+      <c r="M19" s="149">
+        <v>356</v>
+      </c>
+      <c r="N19" s="246">
+        <v>598</v>
+      </c>
+      <c r="O19" s="247">
+        <v>172</v>
+      </c>
+      <c r="P19" s="248">
+        <v>668</v>
+      </c>
+      <c r="Q19" s="249">
+        <v>178</v>
+      </c>
+      <c r="R19" s="155">
+        <v>183</v>
+      </c>
+      <c r="S19" s="70">
+        <v>280</v>
+      </c>
+      <c r="T19" s="242">
+        <v>419</v>
+      </c>
+      <c r="U19" s="95">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="173">
+        <v>832</v>
+      </c>
+      <c r="B20" s="250">
+        <v>691</v>
+      </c>
+      <c r="C20" s="61">
+        <v>858</v>
+      </c>
+      <c r="D20" s="41">
+        <v>847</v>
+      </c>
+      <c r="E20" s="43">
+        <v>857</v>
+      </c>
+      <c r="F20" s="251">
+        <v>675</v>
+      </c>
+      <c r="G20" s="161">
+        <v>365</v>
+      </c>
+      <c r="H20" s="101">
+        <v>378</v>
+      </c>
+      <c r="I20" s="241">
+        <v>420</v>
+      </c>
+      <c r="J20" s="76">
+        <v>492</v>
+      </c>
+      <c r="K20" s="149">
+        <v>437</v>
+      </c>
+      <c r="L20" s="252">
+        <v>362</v>
+      </c>
+      <c r="M20" s="149">
+        <v>356</v>
+      </c>
+      <c r="N20" s="71">
+        <v>443</v>
+      </c>
+      <c r="O20" s="253">
+        <v>175</v>
+      </c>
+      <c r="P20" s="160">
+        <v>423</v>
+      </c>
+      <c r="Q20" s="148">
+        <v>296</v>
+      </c>
+      <c r="R20" s="249">
+        <v>178</v>
+      </c>
+      <c r="S20" s="155">
+        <v>236</v>
+      </c>
+      <c r="T20" s="62">
+        <v>316</v>
+      </c>
+      <c r="U20" s="254">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="192">
+        <v>908</v>
+      </c>
+      <c r="B21" s="152">
+        <v>762</v>
+      </c>
+      <c r="C21" s="146">
+        <v>999</v>
+      </c>
+      <c r="D21" s="255">
+        <v>1059</v>
+      </c>
+      <c r="E21" s="256">
+        <v>953</v>
+      </c>
+      <c r="F21" s="117">
+        <v>712</v>
+      </c>
+      <c r="G21" s="233">
+        <v>384</v>
+      </c>
+      <c r="H21" s="137">
+        <v>397</v>
+      </c>
+      <c r="I21" s="143">
+        <v>354</v>
+      </c>
+      <c r="J21" s="165">
+        <v>622</v>
+      </c>
+      <c r="K21" s="101">
+        <v>417</v>
+      </c>
+      <c r="L21" s="111">
+        <v>370</v>
+      </c>
+      <c r="M21" s="79">
+        <v>363</v>
+      </c>
+      <c r="N21" s="255">
+        <v>642</v>
+      </c>
+      <c r="O21" s="257">
+        <v>121</v>
+      </c>
+      <c r="P21" s="258">
+        <v>633</v>
+      </c>
+      <c r="Q21" s="259">
+        <v>136</v>
+      </c>
+      <c r="R21" s="260">
+        <v>142</v>
+      </c>
+      <c r="S21" s="149">
+        <v>429</v>
+      </c>
+      <c r="T21" s="235">
+        <v>443</v>
+      </c>
+      <c r="U21" s="77">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="184">
+        <v>954</v>
+      </c>
+      <c r="B22" s="205">
+        <v>811</v>
+      </c>
+      <c r="C22" s="158">
+        <v>983</v>
+      </c>
+      <c r="D22" s="146">
+        <v>966</v>
+      </c>
+      <c r="E22" s="68">
+        <v>998</v>
+      </c>
+      <c r="F22" s="202">
+        <v>751</v>
+      </c>
+      <c r="G22" s="261">
+        <v>393</v>
+      </c>
+      <c r="H22" s="190">
+        <v>405</v>
+      </c>
+      <c r="I22" s="262">
+        <v>522</v>
+      </c>
+      <c r="J22" s="66">
+        <v>565</v>
+      </c>
+      <c r="K22" s="223">
+        <v>510</v>
+      </c>
+      <c r="L22" s="113">
+        <v>466</v>
+      </c>
+      <c r="M22" s="152">
+        <v>479</v>
+      </c>
+      <c r="N22" s="55">
+        <v>609</v>
+      </c>
+      <c r="O22" s="263">
+        <v>250</v>
+      </c>
+      <c r="P22" s="214">
+        <v>749</v>
+      </c>
+      <c r="Q22" s="252">
+        <v>359</v>
+      </c>
+      <c r="R22" s="264">
+        <v>491</v>
+      </c>
+      <c r="S22" s="265">
+        <v>640</v>
+      </c>
+      <c r="T22" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="212">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="43">
+        <v>836</v>
+      </c>
+      <c r="B23" s="78">
+        <v>735</v>
+      </c>
+      <c r="C23" s="222">
+        <v>1051</v>
+      </c>
+      <c r="D23" s="42">
+        <v>662</v>
+      </c>
+      <c r="E23" s="264">
+        <v>984</v>
+      </c>
+      <c r="F23" s="66">
+        <v>709</v>
+      </c>
+      <c r="G23" s="60">
+        <v>367</v>
+      </c>
+      <c r="H23" s="173">
+        <v>379</v>
+      </c>
+      <c r="I23" s="108">
+        <v>405</v>
+      </c>
+      <c r="J23" s="160">
+        <v>570</v>
+      </c>
+      <c r="K23" s="266">
+        <v>470</v>
+      </c>
+      <c r="L23" s="79">
+        <v>364</v>
+      </c>
+      <c r="M23" s="46">
+        <v>383</v>
+      </c>
+      <c r="N23" s="267">
+        <v>563</v>
+      </c>
+      <c r="O23" s="247">
+        <v>172</v>
+      </c>
+      <c r="P23" s="142">
+        <v>472</v>
+      </c>
+      <c r="Q23" s="268">
+        <v>163</v>
+      </c>
+      <c r="R23" s="130">
+        <v>198</v>
+      </c>
+      <c r="S23" s="47">
+        <v>438</v>
+      </c>
+      <c r="T23" s="111">
+        <v>383</v>
+      </c>
+      <c r="U23" s="97">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="98">
+        <v>808</v>
+      </c>
+      <c r="B24" s="269">
+        <v>724</v>
+      </c>
+      <c r="C24" s="178">
+        <v>886</v>
+      </c>
+      <c r="D24" s="149">
+        <v>890</v>
+      </c>
+      <c r="E24" s="252">
+        <v>890</v>
+      </c>
+      <c r="F24" s="73">
+        <v>731</v>
+      </c>
+      <c r="G24" s="103">
+        <v>391</v>
+      </c>
+      <c r="H24" s="49">
+        <v>404</v>
+      </c>
+      <c r="I24" s="269">
+        <v>428</v>
+      </c>
+      <c r="J24" s="176">
+        <v>509</v>
+      </c>
+      <c r="K24" s="141">
+        <v>461</v>
+      </c>
+      <c r="L24" s="190">
+        <v>392</v>
+      </c>
+      <c r="M24" s="47">
+        <v>366</v>
+      </c>
+      <c r="N24" s="66">
+        <v>413</v>
+      </c>
+      <c r="O24" s="38">
+        <v>188</v>
+      </c>
+      <c r="P24" s="267">
+        <v>563</v>
+      </c>
+      <c r="Q24" s="41">
+        <v>284</v>
+      </c>
+      <c r="R24" s="98">
+        <v>294</v>
+      </c>
+      <c r="S24" s="67">
+        <v>511</v>
+      </c>
+      <c r="T24" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="270">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="41">
+        <v>804</v>
+      </c>
+      <c r="B25" s="271">
+        <v>692</v>
+      </c>
+      <c r="C25" s="56">
+        <v>907</v>
+      </c>
+      <c r="D25" s="176">
+        <v>862</v>
+      </c>
+      <c r="E25" s="95">
+        <v>870</v>
+      </c>
+      <c r="F25" s="89">
+        <v>663</v>
+      </c>
+      <c r="G25" s="47">
+        <v>354</v>
+      </c>
+      <c r="H25" s="94">
+        <v>367</v>
+      </c>
+      <c r="I25" s="56">
+        <v>391</v>
+      </c>
+      <c r="J25" s="272">
+        <v>506</v>
+      </c>
+      <c r="K25" s="252">
+        <v>440</v>
+      </c>
+      <c r="L25" s="116">
+        <v>355</v>
+      </c>
+      <c r="M25" s="95">
+        <v>347</v>
+      </c>
+      <c r="N25" s="273">
+        <v>473</v>
+      </c>
+      <c r="O25" s="274">
+        <v>171</v>
+      </c>
+      <c r="P25" s="55">
+        <v>612</v>
+      </c>
+      <c r="Q25" s="275">
+        <v>110</v>
+      </c>
+      <c r="R25" s="276">
+        <v>82</v>
+      </c>
+      <c r="S25" s="277">
+        <v>108</v>
+      </c>
+      <c r="T25" s="278">
+        <v>186</v>
+      </c>
+      <c r="U25" s="279">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="96">
+        <v>824</v>
+      </c>
+      <c r="B26" s="62">
+        <v>711</v>
+      </c>
+      <c r="C26" s="280">
+        <v>890</v>
+      </c>
+      <c r="D26" s="137">
+        <v>899</v>
+      </c>
+      <c r="E26" s="245">
+        <v>911</v>
+      </c>
+      <c r="F26" s="118">
+        <v>727</v>
+      </c>
+      <c r="G26" s="281">
+        <v>381</v>
+      </c>
+      <c r="H26" s="47">
+        <v>394</v>
+      </c>
+      <c r="I26" s="161">
+        <v>446</v>
+      </c>
+      <c r="J26" s="96">
+        <v>514</v>
+      </c>
+      <c r="K26" s="192">
+        <v>478</v>
+      </c>
+      <c r="L26" s="242">
+        <v>408</v>
+      </c>
+      <c r="M26" s="242">
+        <v>409</v>
+      </c>
+      <c r="N26" s="113">
+        <v>467</v>
+      </c>
+      <c r="O26" s="179">
+        <v>195</v>
+      </c>
+      <c r="P26" s="113">
+        <v>466</v>
+      </c>
+      <c r="Q26" s="106">
+        <v>256</v>
+      </c>
+      <c r="R26" s="282">
+        <v>140</v>
+      </c>
+      <c r="S26" s="275">
+        <v>154</v>
+      </c>
+      <c r="T26" s="75">
+        <v>275</v>
+      </c>
+      <c r="U26" s="254">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="100">
+        <v>823</v>
+      </c>
+      <c r="B27" s="120">
+        <v>688</v>
+      </c>
+      <c r="C27" s="106">
+        <v>899</v>
+      </c>
+      <c r="D27" s="283">
+        <v>877</v>
+      </c>
+      <c r="E27" s="252">
+        <v>890</v>
+      </c>
+      <c r="F27" s="173">
+        <v>673</v>
+      </c>
+      <c r="G27" s="139">
+        <v>316</v>
+      </c>
+      <c r="H27" s="186">
+        <v>329</v>
+      </c>
+      <c r="I27" s="252">
+        <v>437</v>
+      </c>
+      <c r="J27" s="96">
+        <v>512</v>
+      </c>
+      <c r="K27" s="47">
+        <v>444</v>
+      </c>
+      <c r="L27" s="190">
+        <v>391</v>
+      </c>
+      <c r="M27" s="141">
+        <v>400</v>
+      </c>
+      <c r="N27" s="266">
+        <v>484</v>
+      </c>
+      <c r="O27" s="91">
+        <v>188</v>
+      </c>
+      <c r="P27" s="284">
+        <v>683</v>
+      </c>
+      <c r="Q27" s="179">
+        <v>196</v>
+      </c>
+      <c r="R27" s="271">
+        <v>244</v>
+      </c>
+      <c r="S27" s="108">
+        <v>365</v>
+      </c>
+      <c r="T27" s="49">
+        <v>404</v>
+      </c>
+      <c r="U27" s="285">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="48">
+        <v>865</v>
+      </c>
+      <c r="B28" s="140">
+        <v>752</v>
+      </c>
+      <c r="C28" s="100">
+        <v>926</v>
+      </c>
+      <c r="D28" s="49">
+        <v>908</v>
+      </c>
+      <c r="E28" s="286">
+        <v>943</v>
+      </c>
+      <c r="F28" s="287">
+        <v>761</v>
+      </c>
+      <c r="G28" s="115">
+        <v>399</v>
+      </c>
+      <c r="H28" s="141">
+        <v>412</v>
+      </c>
+      <c r="I28" s="288">
+        <v>413</v>
+      </c>
+      <c r="J28" s="174">
+        <v>509</v>
+      </c>
+      <c r="K28" s="166">
+        <v>474</v>
+      </c>
+      <c r="L28" s="160">
+        <v>424</v>
+      </c>
+      <c r="M28" s="160">
+        <v>422</v>
+      </c>
+      <c r="N28" s="208">
+        <v>513</v>
+      </c>
+      <c r="O28" s="289">
+        <v>245</v>
+      </c>
+      <c r="P28" s="290">
+        <v>735</v>
+      </c>
+      <c r="Q28" s="52">
+        <v>322</v>
+      </c>
+      <c r="R28" s="141">
+        <v>401</v>
+      </c>
+      <c r="S28" s="74">
+        <v>578</v>
+      </c>
+      <c r="T28" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="232">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="222">
+        <v>919</v>
+      </c>
+      <c r="B29" s="48">
+        <v>738</v>
+      </c>
+      <c r="C29" s="48">
+        <v>956</v>
+      </c>
+      <c r="D29" s="86">
+        <v>939</v>
+      </c>
+      <c r="E29" s="117">
+        <v>951</v>
+      </c>
+      <c r="F29" s="263">
+        <v>625</v>
+      </c>
+      <c r="G29" s="48">
+        <v>373</v>
+      </c>
+      <c r="H29" s="95">
+        <v>386</v>
+      </c>
+      <c r="I29" s="291">
+        <v>468</v>
+      </c>
+      <c r="J29" s="68">
+        <v>609</v>
+      </c>
+      <c r="K29" s="245">
+        <v>451</v>
+      </c>
+      <c r="L29" s="292">
+        <v>457</v>
+      </c>
+      <c r="M29" s="292">
+        <v>457</v>
+      </c>
+      <c r="N29" s="136">
+        <v>581</v>
+      </c>
+      <c r="O29" s="59">
+        <v>209</v>
+      </c>
+      <c r="P29" s="293">
+        <v>745</v>
+      </c>
+      <c r="Q29" s="251">
+        <v>334</v>
+      </c>
+      <c r="R29" s="294">
+        <v>488</v>
+      </c>
+      <c r="S29" s="295">
+        <v>650</v>
+      </c>
+      <c r="T29" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="87">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="137">
+        <v>857</v>
+      </c>
+      <c r="B30" s="101">
+        <v>720</v>
+      </c>
+      <c r="C30" s="254">
+        <v>880</v>
+      </c>
+      <c r="D30" s="176">
+        <v>863</v>
+      </c>
+      <c r="E30" s="114">
+        <v>874</v>
+      </c>
+      <c r="F30" s="131">
+        <v>735</v>
+      </c>
+      <c r="G30" s="242">
+        <v>386</v>
+      </c>
+      <c r="H30" s="161">
+        <v>399</v>
+      </c>
+      <c r="I30" s="283">
+        <v>423</v>
+      </c>
+      <c r="J30" s="296">
+        <v>499</v>
+      </c>
+      <c r="K30" s="111">
+        <v>446</v>
+      </c>
+      <c r="L30" s="45">
+        <v>395</v>
+      </c>
+      <c r="M30" s="190">
+        <v>392</v>
+      </c>
+      <c r="N30" s="140">
+        <v>437</v>
+      </c>
+      <c r="O30" s="57">
+        <v>207</v>
+      </c>
+      <c r="P30" s="110">
+        <v>325</v>
+      </c>
+      <c r="Q30" s="176">
+        <v>310</v>
+      </c>
+      <c r="R30" s="88">
+        <v>260</v>
+      </c>
+      <c r="S30" s="250">
+        <v>299</v>
+      </c>
+      <c r="T30" s="297">
+        <v>339</v>
+      </c>
+      <c r="U30" s="159">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="79">
+        <v>852</v>
+      </c>
+      <c r="B31" s="128">
+        <v>745</v>
+      </c>
+      <c r="C31" s="129">
+        <v>1005</v>
+      </c>
+      <c r="D31" s="45">
+        <v>913</v>
+      </c>
+      <c r="E31" s="86">
+        <v>956</v>
+      </c>
+      <c r="F31" s="142">
+        <v>719</v>
+      </c>
+      <c r="G31" s="66">
+        <v>390</v>
+      </c>
+      <c r="H31" s="48">
+        <v>403</v>
+      </c>
+      <c r="I31" s="152">
+        <v>465</v>
+      </c>
+      <c r="J31" s="89">
+        <v>510</v>
+      </c>
+      <c r="K31" s="79">
+        <v>441</v>
+      </c>
+      <c r="L31" s="269">
+        <v>342</v>
+      </c>
+      <c r="M31" s="43">
+        <v>337</v>
+      </c>
+      <c r="N31" s="128">
+        <v>409</v>
+      </c>
+      <c r="O31" s="298">
+        <v>166</v>
+      </c>
+      <c r="P31" s="123">
+        <v>541</v>
+      </c>
+      <c r="Q31" s="299">
+        <v>149</v>
+      </c>
+      <c r="R31" s="300">
+        <v>156</v>
+      </c>
+      <c r="S31" s="245">
+        <v>448</v>
+      </c>
+      <c r="T31" s="129">
+        <v>493</v>
+      </c>
+      <c r="U31" s="49">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="301">
+        <v>981</v>
+      </c>
+      <c r="B32" s="265">
+        <v>795</v>
+      </c>
+      <c r="C32" s="302">
+        <v>1069</v>
+      </c>
+      <c r="D32" s="129">
+        <v>974</v>
+      </c>
+      <c r="E32" s="63">
+        <v>1019</v>
+      </c>
+      <c r="F32" s="285">
+        <v>642</v>
+      </c>
+      <c r="G32" s="60">
+        <v>367</v>
+      </c>
+      <c r="H32" s="283">
+        <v>380</v>
+      </c>
+      <c r="I32" s="258">
+        <v>488</v>
+      </c>
+      <c r="J32" s="147">
+        <v>606</v>
+      </c>
+      <c r="K32" s="191">
+        <v>490</v>
+      </c>
+      <c r="L32" s="256">
+        <v>432</v>
+      </c>
+      <c r="M32" s="86">
+        <v>439</v>
+      </c>
+      <c r="N32" s="165">
+        <v>545</v>
+      </c>
+      <c r="O32" s="303">
+        <v>179</v>
+      </c>
+      <c r="P32" s="54">
+        <v>627</v>
+      </c>
+      <c r="Q32" s="304">
+        <v>170</v>
+      </c>
+      <c r="R32" s="253">
+        <v>174</v>
+      </c>
+      <c r="S32" s="145">
+        <v>309</v>
+      </c>
+      <c r="T32" s="161">
+        <v>393</v>
+      </c>
+      <c r="U32" s="305">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A33" s="116">
+        <v>847</v>
+      </c>
+      <c r="B33" s="306">
+        <v>703</v>
+      </c>
+      <c r="C33" s="103">
+        <v>969</v>
+      </c>
+      <c r="D33" s="101">
+        <v>873</v>
+      </c>
+      <c r="E33" s="95">
+        <v>869</v>
+      </c>
+      <c r="F33" s="307">
+        <v>612</v>
+      </c>
+      <c r="G33" s="95">
+        <v>334</v>
+      </c>
+      <c r="H33" s="88">
+        <v>347</v>
+      </c>
+      <c r="I33" s="308">
+        <v>500</v>
+      </c>
+      <c r="J33" s="107">
+        <v>527</v>
+      </c>
+      <c r="K33" s="46">
+        <v>457</v>
+      </c>
+      <c r="L33" s="281">
+        <v>398</v>
+      </c>
+      <c r="M33" s="141">
+        <v>401</v>
+      </c>
+      <c r="N33" s="68">
+        <v>516</v>
+      </c>
+      <c r="O33" s="309">
+        <v>229</v>
+      </c>
+      <c r="P33" s="191">
+        <v>677</v>
+      </c>
+      <c r="Q33" s="124">
+        <v>291</v>
+      </c>
+      <c r="R33" s="47">
+        <v>367</v>
+      </c>
+      <c r="S33" s="270">
+        <v>552</v>
+      </c>
+      <c r="T33" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="270">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A34" s="224">
+        <v>915</v>
+      </c>
+      <c r="B34" s="234">
+        <v>803</v>
+      </c>
+      <c r="C34" s="222">
+        <v>1051</v>
+      </c>
+      <c r="D34" s="300">
+        <v>770</v>
+      </c>
+      <c r="E34" s="141">
+        <v>936</v>
+      </c>
+      <c r="F34" s="310">
+        <v>786</v>
+      </c>
+      <c r="G34" s="252">
+        <v>350</v>
+      </c>
+      <c r="H34" s="148">
+        <v>363</v>
+      </c>
+      <c r="I34" s="202">
+        <v>494</v>
+      </c>
+      <c r="J34" s="273">
+        <v>592</v>
+      </c>
+      <c r="K34" s="311">
+        <v>500</v>
+      </c>
+      <c r="L34" s="160">
+        <v>425</v>
+      </c>
+      <c r="M34" s="261">
+        <v>419</v>
+      </c>
+      <c r="N34" s="68">
+        <v>519</v>
+      </c>
+      <c r="O34" s="257">
+        <v>120</v>
+      </c>
+      <c r="P34" s="312">
+        <v>254</v>
+      </c>
+      <c r="Q34" s="98">
+        <v>293</v>
+      </c>
+      <c r="R34" s="97">
+        <v>246</v>
+      </c>
+      <c r="S34" s="280">
+        <v>295</v>
+      </c>
+      <c r="T34" s="269">
+        <v>357</v>
+      </c>
+      <c r="U34" s="178">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A35" s="73">
+        <v>905</v>
+      </c>
+      <c r="B35" s="313">
+        <v>768</v>
+      </c>
+      <c r="C35" s="284">
+        <v>1084</v>
+      </c>
+      <c r="D35" s="273">
+        <v>959</v>
+      </c>
+      <c r="E35" s="190">
+        <v>931</v>
+      </c>
+      <c r="F35" s="193">
+        <v>761</v>
+      </c>
+      <c r="G35" s="273">
+        <v>424</v>
+      </c>
+      <c r="H35" s="71">
+        <v>437</v>
+      </c>
+      <c r="I35" s="117">
+        <v>457</v>
+      </c>
+      <c r="J35" s="60">
+        <v>550</v>
+      </c>
+      <c r="K35" s="152">
+        <v>470</v>
+      </c>
+      <c r="L35" s="261">
+        <v>420</v>
+      </c>
+      <c r="M35" s="115">
+        <v>430</v>
+      </c>
+      <c r="N35" s="147">
+        <v>509</v>
+      </c>
+      <c r="O35" s="314">
+        <v>218</v>
+      </c>
+      <c r="P35" s="49">
+        <v>387</v>
+      </c>
+      <c r="Q35" s="77">
+        <v>266</v>
+      </c>
+      <c r="R35" s="70">
+        <v>224</v>
+      </c>
+      <c r="S35" s="97">
+        <v>306</v>
+      </c>
+      <c r="T35" s="47">
+        <v>382</v>
+      </c>
+      <c r="U35" s="148">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A36" s="46">
+        <v>863</v>
+      </c>
+      <c r="B36" s="158">
+        <v>754</v>
+      </c>
+      <c r="C36" s="195">
+        <v>1019</v>
+      </c>
+      <c r="D36" s="315">
+        <v>947</v>
+      </c>
+      <c r="E36" s="66">
+        <v>942</v>
+      </c>
+      <c r="F36" s="316">
+        <v>773</v>
+      </c>
+      <c r="G36" s="142">
+        <v>422</v>
+      </c>
+      <c r="H36" s="86">
+        <v>435</v>
+      </c>
+      <c r="I36" s="46">
+        <v>448</v>
+      </c>
+      <c r="J36" s="110">
+        <v>516</v>
+      </c>
+      <c r="K36" s="165">
+        <v>476</v>
+      </c>
+      <c r="L36" s="141">
+        <v>399</v>
+      </c>
+      <c r="M36" s="84">
+        <v>393</v>
+      </c>
+      <c r="N36" s="266">
+        <v>482</v>
+      </c>
+      <c r="O36" s="317">
+        <v>216</v>
+      </c>
+      <c r="P36" s="318">
+        <v>711</v>
+      </c>
+      <c r="Q36" s="280">
+        <v>236</v>
+      </c>
+      <c r="R36" s="171">
+        <v>288</v>
+      </c>
+      <c r="S36" s="45">
+        <v>469</v>
+      </c>
+      <c r="T36" s="80">
+        <v>547</v>
+      </c>
+      <c r="U36" s="66">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A37" s="52">
+        <v>826</v>
+      </c>
+      <c r="B37" s="82">
+        <v>683</v>
+      </c>
+      <c r="C37" s="171">
+        <v>913</v>
+      </c>
+      <c r="D37" s="101">
+        <v>874</v>
+      </c>
+      <c r="E37" s="319">
+        <v>879</v>
+      </c>
+      <c r="F37" s="320">
+        <v>594</v>
+      </c>
+      <c r="G37" s="37">
+        <v>304</v>
+      </c>
+      <c r="H37" s="177">
+        <v>317</v>
+      </c>
+      <c r="I37" s="53">
+        <v>454</v>
+      </c>
+      <c r="J37" s="149">
+        <v>536</v>
+      </c>
+      <c r="K37" s="47">
+        <v>444</v>
+      </c>
+      <c r="L37" s="79">
+        <v>362</v>
+      </c>
+      <c r="M37" s="79">
+        <v>364</v>
+      </c>
+      <c r="N37" s="87">
+        <v>506</v>
+      </c>
+      <c r="O37" s="321">
+        <v>128</v>
+      </c>
+      <c r="P37" s="152">
+        <v>479</v>
+      </c>
+      <c r="Q37" s="322">
+        <v>73</v>
+      </c>
+      <c r="R37" s="323">
+        <v>51</v>
+      </c>
+      <c r="S37" s="257">
+        <v>167</v>
+      </c>
+      <c r="T37" s="258">
+        <v>603</v>
+      </c>
+      <c r="U37" s="324">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A38" s="325">
+        <v>911.25</v>
+      </c>
+      <c r="B38" s="326">
+        <v>826</v>
+      </c>
+      <c r="C38" s="327">
+        <v>1071</v>
+      </c>
+      <c r="D38" s="191">
+        <v>1079</v>
+      </c>
+      <c r="E38" s="37">
+        <v>1068</v>
+      </c>
+      <c r="F38" s="72">
+        <v>716</v>
+      </c>
+      <c r="G38" s="46">
+        <v>371</v>
+      </c>
+      <c r="H38" s="207">
+        <v>717</v>
+      </c>
+      <c r="I38" s="238">
+        <v>499</v>
+      </c>
+      <c r="J38" s="301">
+        <v>762</v>
+      </c>
+      <c r="K38" s="46">
+        <v>456</v>
+      </c>
+      <c r="L38" s="202">
+        <v>671</v>
+      </c>
+      <c r="M38" s="199">
+        <v>526</v>
+      </c>
+      <c r="N38" s="290">
+        <v>734</v>
+      </c>
+      <c r="O38" s="111">
+        <v>368</v>
+      </c>
+      <c r="P38" s="328">
+        <v>943</v>
+      </c>
+      <c r="Q38" s="118">
+        <v>521</v>
+      </c>
+      <c r="R38" s="208">
+        <v>512</v>
+      </c>
+      <c r="S38" s="209">
+        <v>948</v>
+      </c>
+      <c r="T38" s="329">
+        <v>863</v>
+      </c>
+      <c r="U38" s="330">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A39" s="331">
+        <v>971.25</v>
+      </c>
+      <c r="B39" s="221">
+        <v>849</v>
+      </c>
+      <c r="C39" s="182">
+        <v>1117</v>
+      </c>
+      <c r="D39" s="193">
+        <v>1116</v>
+      </c>
+      <c r="E39" s="153">
+        <v>1117</v>
+      </c>
+      <c r="F39" s="332">
+        <v>748</v>
+      </c>
+      <c r="G39" s="73">
+        <v>466</v>
+      </c>
+      <c r="H39" s="226">
+        <v>750</v>
+      </c>
+      <c r="I39" s="218">
+        <v>520</v>
+      </c>
+      <c r="J39" s="225">
+        <v>784</v>
+      </c>
+      <c r="K39" s="81">
+        <v>468</v>
+      </c>
+      <c r="L39" s="284">
+        <v>684</v>
+      </c>
+      <c r="M39" s="73">
+        <v>548</v>
+      </c>
+      <c r="N39" s="184">
+        <v>754</v>
+      </c>
+      <c r="O39" s="161">
+        <v>376</v>
+      </c>
+      <c r="P39" s="333">
+        <v>892</v>
+      </c>
+      <c r="Q39" s="165">
+        <v>544</v>
+      </c>
+      <c r="R39" s="165">
+        <v>544</v>
+      </c>
+      <c r="S39" s="334">
+        <v>904</v>
+      </c>
+      <c r="T39" s="187">
+        <v>799</v>
+      </c>
+      <c r="U39" s="316">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A40" s="335">
+        <v>939.25</v>
+      </c>
+      <c r="B40" s="336">
+        <v>825</v>
+      </c>
+      <c r="C40" s="201">
+        <v>1083</v>
+      </c>
+      <c r="D40" s="337">
+        <v>1092</v>
+      </c>
+      <c r="E40" s="338">
+        <v>1085</v>
+      </c>
+      <c r="F40" s="39">
+        <v>499</v>
+      </c>
+      <c r="G40" s="118">
+        <v>450</v>
+      </c>
+      <c r="H40" s="203">
+        <v>724</v>
+      </c>
+      <c r="I40" s="339">
+        <v>510</v>
+      </c>
+      <c r="J40" s="310">
+        <v>776</v>
+      </c>
+      <c r="K40" s="242">
+        <v>462</v>
+      </c>
+      <c r="L40" s="201">
+        <v>680</v>
+      </c>
+      <c r="M40" s="123">
+        <v>539</v>
+      </c>
+      <c r="N40" s="184">
+        <v>755</v>
+      </c>
+      <c r="O40" s="245">
+        <v>376</v>
+      </c>
+      <c r="P40" s="340">
+        <v>948</v>
+      </c>
+      <c r="Q40" s="74">
+        <v>529</v>
+      </c>
+      <c r="R40" s="166">
+        <v>524</v>
+      </c>
+      <c r="S40" s="341">
+        <v>967</v>
+      </c>
+      <c r="T40" s="342">
+        <v>866</v>
+      </c>
+      <c r="U40" s="156">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A41" s="226">
+        <v>1008.25</v>
+      </c>
+      <c r="B41" s="343">
+        <v>865</v>
+      </c>
+      <c r="C41" s="42">
+        <v>775</v>
+      </c>
+      <c r="D41" s="65">
+        <v>1023</v>
+      </c>
+      <c r="E41" s="42">
+        <v>1028</v>
+      </c>
+      <c r="F41" s="344">
+        <v>636</v>
+      </c>
+      <c r="G41" s="68">
+        <v>449</v>
+      </c>
+      <c r="H41" s="203">
+        <v>723</v>
+      </c>
+      <c r="I41" s="310">
+        <v>529</v>
+      </c>
+      <c r="J41" s="156">
+        <v>803</v>
+      </c>
+      <c r="K41" s="49">
+        <v>460</v>
+      </c>
+      <c r="L41" s="284">
+        <v>683</v>
+      </c>
+      <c r="M41" s="68">
+        <v>516</v>
+      </c>
+      <c r="N41" s="224">
+        <v>591</v>
+      </c>
+      <c r="O41" s="345">
+        <v>592</v>
+      </c>
+      <c r="P41" s="183">
+        <v>881</v>
+      </c>
+      <c r="Q41" s="346">
+        <v>551</v>
+      </c>
+      <c r="R41" s="346">
+        <v>552</v>
+      </c>
+      <c r="S41" s="153">
+        <v>982</v>
+      </c>
+      <c r="T41" s="153">
+        <v>917</v>
+      </c>
+      <c r="U41" s="213">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A42" s="42">
+        <v>613</v>
+      </c>
+      <c r="B42" s="42">
+        <v>604</v>
+      </c>
+      <c r="C42" s="247">
+        <v>862</v>
+      </c>
+      <c r="D42" s="58">
+        <v>751</v>
+      </c>
+      <c r="E42" s="122">
+        <v>766</v>
+      </c>
+      <c r="F42" s="347">
+        <v>611</v>
+      </c>
+      <c r="G42" s="108">
+        <v>288</v>
+      </c>
+      <c r="H42" s="42">
+        <v>221</v>
+      </c>
+      <c r="I42" s="348">
+        <v>321</v>
+      </c>
+      <c r="J42" s="76">
+        <v>491</v>
+      </c>
+      <c r="K42" s="349">
+        <v>323</v>
+      </c>
+      <c r="L42" s="99">
+        <v>237</v>
+      </c>
+      <c r="M42" s="305">
+        <v>239</v>
+      </c>
+      <c r="N42" s="315">
+        <v>456</v>
+      </c>
+      <c r="O42" s="299">
+        <v>149</v>
+      </c>
+      <c r="P42" s="73">
+        <v>547</v>
+      </c>
+      <c r="Q42" s="350">
+        <v>165</v>
+      </c>
+      <c r="R42" s="351">
+        <v>168</v>
+      </c>
+      <c r="S42" s="232">
+        <v>489</v>
+      </c>
+      <c r="T42" s="195">
+        <v>522</v>
+      </c>
+      <c r="U42" s="139">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A43" s="98">
+        <v>809</v>
+      </c>
+      <c r="B43" s="352">
+        <v>676</v>
+      </c>
+      <c r="C43" s="274">
+        <v>861</v>
+      </c>
+      <c r="D43" s="125">
+        <v>815</v>
+      </c>
+      <c r="E43" s="52">
+        <v>832</v>
+      </c>
+      <c r="F43" s="173">
+        <v>674</v>
+      </c>
+      <c r="G43" s="127">
+        <v>350</v>
+      </c>
+      <c r="H43" s="306">
+        <v>356</v>
+      </c>
+      <c r="I43" s="97">
+        <v>377</v>
+      </c>
+      <c r="J43" s="157">
+        <v>446</v>
+      </c>
+      <c r="K43" s="108">
+        <v>393</v>
+      </c>
+      <c r="L43" s="171">
+        <v>287</v>
+      </c>
+      <c r="M43" s="83">
+        <v>258</v>
+      </c>
+      <c r="N43" s="166">
+        <v>523</v>
+      </c>
+      <c r="O43" s="257">
+        <v>121</v>
+      </c>
+      <c r="P43" s="75">
+        <v>262</v>
+      </c>
+      <c r="Q43" s="314">
+        <v>218</v>
+      </c>
+      <c r="R43" s="353">
+        <v>130</v>
+      </c>
+      <c r="S43" s="282">
+        <v>188</v>
+      </c>
+      <c r="T43" s="79">
+        <v>379</v>
+      </c>
+      <c r="U43" s="107">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44" s="71">
+        <v>880</v>
+      </c>
+      <c r="B44" s="273">
+        <v>761</v>
+      </c>
+      <c r="C44" s="95">
+        <v>939</v>
+      </c>
+      <c r="D44" s="115">
+        <v>934</v>
+      </c>
+      <c r="E44" s="242">
+        <v>939</v>
+      </c>
+      <c r="F44" s="202">
+        <v>751</v>
+      </c>
+      <c r="G44" s="273">
+        <v>424</v>
+      </c>
+      <c r="H44" s="111">
+        <v>396</v>
+      </c>
+      <c r="I44" s="139">
+        <v>419</v>
+      </c>
+      <c r="J44" s="94">
+        <v>504</v>
+      </c>
+      <c r="K44" s="236">
+        <v>476</v>
+      </c>
+      <c r="L44" s="261">
+        <v>419</v>
+      </c>
+      <c r="M44" s="66">
+        <v>411</v>
+      </c>
+      <c r="N44" s="69">
+        <v>567</v>
+      </c>
+      <c r="O44" s="309">
+        <v>230</v>
+      </c>
+      <c r="P44" s="308">
+        <v>709</v>
+      </c>
+      <c r="Q44" s="354">
+        <v>290</v>
+      </c>
+      <c r="R44" s="108">
+        <v>300</v>
+      </c>
+      <c r="S44" s="66">
+        <v>481</v>
+      </c>
+      <c r="T44" s="123">
+        <v>527</v>
+      </c>
+      <c r="U44" s="53">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45" s="98">
+        <v>809</v>
+      </c>
+      <c r="B45" s="126">
+        <v>700</v>
+      </c>
+      <c r="C45" s="160">
+        <v>972</v>
+      </c>
+      <c r="D45" s="355">
+        <v>878</v>
+      </c>
+      <c r="E45" s="356">
+        <v>958</v>
+      </c>
+      <c r="F45" s="357">
+        <v>589</v>
+      </c>
+      <c r="G45" s="173">
+        <v>320</v>
+      </c>
+      <c r="H45" s="54">
+        <v>543</v>
+      </c>
+      <c r="I45" s="128">
+        <v>454</v>
+      </c>
+      <c r="J45" s="68">
+        <v>611</v>
+      </c>
+      <c r="K45" s="319">
+        <v>434</v>
+      </c>
+      <c r="L45" s="158">
+        <v>448</v>
+      </c>
+      <c r="M45" s="72">
+        <v>452</v>
+      </c>
+      <c r="N45" s="152">
+        <v>479</v>
+      </c>
+      <c r="O45" s="178">
+        <v>227</v>
+      </c>
+      <c r="P45" s="337">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="128">
+        <v>410</v>
+      </c>
+      <c r="R45" s="266">
+        <v>484</v>
+      </c>
+      <c r="S45" s="358">
+        <v>654</v>
+      </c>
+      <c r="T45" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U45" s="63">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A46" s="319">
+        <v>844</v>
+      </c>
+      <c r="B46" s="62">
+        <v>711</v>
+      </c>
+      <c r="C46" s="126">
+        <v>904</v>
+      </c>
+      <c r="D46" s="139">
+        <v>872</v>
+      </c>
+      <c r="E46" s="252">
+        <v>890</v>
+      </c>
+      <c r="F46" s="66">
+        <v>709</v>
+      </c>
+      <c r="G46" s="161">
+        <v>366</v>
+      </c>
+      <c r="H46" s="46">
+        <v>401</v>
+      </c>
+      <c r="I46" s="149">
+        <v>435</v>
+      </c>
+      <c r="J46" s="94">
+        <v>504</v>
+      </c>
+      <c r="K46" s="137">
+        <v>449</v>
+      </c>
+      <c r="L46" s="46">
+        <v>383</v>
+      </c>
+      <c r="M46" s="47">
+        <v>365</v>
+      </c>
+      <c r="N46" s="315">
+        <v>453</v>
+      </c>
+      <c r="O46" s="349">
+        <v>205</v>
+      </c>
+      <c r="P46" s="359">
+        <v>630</v>
+      </c>
+      <c r="Q46" s="97">
+        <v>246</v>
+      </c>
+      <c r="R46" s="171">
+        <v>288</v>
+      </c>
+      <c r="S46" s="146">
+        <v>541</v>
+      </c>
+      <c r="T46" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U46" s="129">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A47" s="74">
+        <v>900</v>
+      </c>
+      <c r="B47" s="103">
+        <v>746</v>
+      </c>
+      <c r="C47" s="160">
+        <v>972</v>
+      </c>
+      <c r="D47" s="49">
+        <v>910</v>
+      </c>
+      <c r="E47" s="48">
+        <v>926</v>
+      </c>
+      <c r="F47" s="124">
+        <v>649</v>
+      </c>
+      <c r="G47" s="161">
+        <v>366</v>
+      </c>
+      <c r="H47" s="141">
+        <v>412</v>
+      </c>
+      <c r="I47" s="137">
+        <v>444</v>
+      </c>
+      <c r="J47" s="135">
+        <v>504</v>
+      </c>
+      <c r="K47" s="280">
+        <v>347</v>
+      </c>
+      <c r="L47" s="250">
+        <v>240</v>
+      </c>
+      <c r="M47" s="360">
+        <v>201</v>
+      </c>
+      <c r="N47" s="361">
+        <v>306</v>
+      </c>
+      <c r="O47" s="362">
+        <v>48</v>
+      </c>
+      <c r="P47" s="40">
+        <v>52</v>
+      </c>
+      <c r="Q47" s="363">
+        <v>45</v>
+      </c>
+      <c r="R47" s="42">
+        <v>-24</v>
+      </c>
+      <c r="S47" s="42">
+        <v>7</v>
+      </c>
+      <c r="T47" s="42">
+        <v>-21</v>
+      </c>
+      <c r="U47" s="42">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A48" s="71">
+        <v>880</v>
+      </c>
+      <c r="B48" s="152">
+        <v>762</v>
+      </c>
+      <c r="C48" s="141">
+        <v>962</v>
+      </c>
+      <c r="D48" s="364">
+        <v>905</v>
+      </c>
+      <c r="E48" s="45">
+        <v>933</v>
+      </c>
+      <c r="F48" s="107">
+        <v>679</v>
+      </c>
+      <c r="G48" s="60">
+        <v>367</v>
+      </c>
+      <c r="H48" s="264">
+        <v>464</v>
+      </c>
+      <c r="I48" s="229">
+        <v>476</v>
+      </c>
+      <c r="J48" s="71">
+        <v>578</v>
+      </c>
+      <c r="K48" s="365">
+        <v>496</v>
+      </c>
+      <c r="L48" s="315">
+        <v>454</v>
+      </c>
+      <c r="M48" s="235">
+        <v>434</v>
+      </c>
+      <c r="N48" s="313">
+        <v>501</v>
+      </c>
+      <c r="O48" s="178">
+        <v>227</v>
+      </c>
+      <c r="P48" s="366">
+        <v>714</v>
+      </c>
+      <c r="Q48" s="251">
+        <v>334</v>
+      </c>
+      <c r="R48" s="49">
+        <v>387</v>
+      </c>
+      <c r="S48" s="113">
+        <v>526</v>
+      </c>
+      <c r="T48" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U48" s="123">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A49" s="367">
+        <v>777</v>
+      </c>
+      <c r="B49" s="368">
+        <v>655</v>
+      </c>
+      <c r="C49" s="139">
+        <v>930</v>
+      </c>
+      <c r="D49" s="94">
+        <v>859</v>
+      </c>
+      <c r="E49" s="116">
+        <v>882</v>
+      </c>
+      <c r="F49" s="250">
+        <v>621</v>
+      </c>
+      <c r="G49" s="49">
+        <v>376</v>
+      </c>
+      <c r="H49" s="161">
+        <v>399</v>
+      </c>
+      <c r="I49" s="114">
+        <v>431</v>
+      </c>
+      <c r="J49" s="76">
+        <v>492</v>
+      </c>
+      <c r="K49" s="174">
+        <v>403</v>
+      </c>
+      <c r="L49" s="110">
+        <v>324</v>
+      </c>
+      <c r="M49" s="306">
+        <v>280</v>
+      </c>
+      <c r="N49" s="369">
+        <v>331</v>
+      </c>
+      <c r="O49" s="370">
+        <v>100</v>
+      </c>
+      <c r="P49" s="309">
+        <v>230</v>
+      </c>
+      <c r="Q49" s="368">
+        <v>133</v>
+      </c>
+      <c r="R49" s="371">
+        <v>48</v>
+      </c>
+      <c r="S49" s="372">
+        <v>79</v>
+      </c>
+      <c r="T49" s="373">
+        <v>159</v>
+      </c>
+      <c r="U49" s="374">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A50" s="252">
+        <v>849</v>
+      </c>
+      <c r="B50" s="352">
+        <v>676</v>
+      </c>
+      <c r="C50" s="375">
+        <v>782</v>
+      </c>
+      <c r="D50" s="376">
+        <v>688</v>
+      </c>
+      <c r="E50" s="124">
+        <v>789</v>
+      </c>
+      <c r="F50" s="42">
+        <v>468</v>
+      </c>
+      <c r="G50" s="297">
+        <v>314</v>
+      </c>
+      <c r="H50" s="377">
+        <v>359</v>
+      </c>
+      <c r="I50" s="306">
+        <v>395</v>
+      </c>
+      <c r="J50" s="111">
+        <v>543</v>
+      </c>
+      <c r="K50" s="307">
+        <v>338</v>
+      </c>
+      <c r="L50" s="378">
+        <v>228</v>
+      </c>
+      <c r="M50" s="320">
+        <v>194</v>
+      </c>
+      <c r="N50" s="360">
+        <v>201</v>
+      </c>
+      <c r="O50" s="379">
+        <v>112</v>
+      </c>
+      <c r="P50" s="354">
+        <v>289</v>
+      </c>
+      <c r="Q50" s="259">
+        <v>137</v>
+      </c>
+      <c r="R50" s="40">
+        <v>53</v>
+      </c>
+      <c r="S50" s="380">
+        <v>69</v>
+      </c>
+      <c r="T50" s="348">
+        <v>146</v>
+      </c>
+      <c r="U50" s="381">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A51" s="131">
+        <v>910</v>
+      </c>
+      <c r="B51" s="222">
+        <v>795</v>
+      </c>
+      <c r="C51" s="144">
+        <v>1055</v>
+      </c>
+      <c r="D51" s="382">
+        <v>692</v>
+      </c>
+      <c r="E51" s="166">
+        <v>1002</v>
+      </c>
+      <c r="F51" s="383"/>
+      <c r="G51" s="95">
+        <v>336</v>
+      </c>
+      <c r="H51" s="39">
+        <v>245</v>
+      </c>
+      <c r="I51" s="281">
+        <v>453</v>
+      </c>
+      <c r="J51" s="291">
+        <v>600</v>
+      </c>
+      <c r="K51" s="183">
+        <v>512</v>
+      </c>
+      <c r="L51" s="81">
+        <v>463</v>
+      </c>
+      <c r="M51" s="292">
+        <v>457</v>
+      </c>
+      <c r="N51" s="311">
+        <v>761</v>
+      </c>
+      <c r="O51" s="280">
+        <v>236</v>
+      </c>
+      <c r="P51" s="202">
+        <v>672</v>
+      </c>
+      <c r="Q51" s="110">
+        <v>324</v>
+      </c>
+      <c r="R51" s="384">
+        <v>453</v>
+      </c>
+      <c r="S51" s="335">
+        <v>712</v>
+      </c>
+      <c r="T51" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U51" s="212">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A52" s="137">
+        <v>856</v>
+      </c>
+      <c r="B52" s="37">
+        <v>715</v>
+      </c>
+      <c r="C52" s="319">
+        <v>941</v>
+      </c>
+      <c r="D52" s="385">
+        <v>665</v>
+      </c>
+      <c r="E52" s="97">
+        <v>725</v>
+      </c>
+      <c r="F52" s="324">
+        <v>525</v>
+      </c>
+      <c r="G52" s="116">
+        <v>343</v>
+      </c>
+      <c r="H52" s="386">
+        <v>267</v>
+      </c>
+      <c r="I52" s="280">
+        <v>372</v>
+      </c>
+      <c r="J52" s="84">
+        <v>556</v>
+      </c>
+      <c r="K52" s="252">
+        <v>441</v>
+      </c>
+      <c r="L52" s="52">
+        <v>322</v>
+      </c>
+      <c r="M52" s="94">
+        <v>305</v>
+      </c>
+      <c r="N52" s="272">
+        <v>307</v>
+      </c>
+      <c r="O52" s="387">
+        <v>193</v>
+      </c>
+      <c r="P52" s="144">
+        <v>616</v>
+      </c>
+      <c r="Q52" s="350">
+        <v>165</v>
+      </c>
+      <c r="R52" s="102">
+        <v>142</v>
+      </c>
+      <c r="S52" s="168">
+        <v>202</v>
+      </c>
+      <c r="T52" s="43">
+        <v>353</v>
+      </c>
+      <c r="U52" s="70">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A53" s="166">
+        <v>899</v>
+      </c>
+      <c r="B53" s="117">
+        <v>749</v>
+      </c>
+      <c r="C53" s="192">
+        <v>1031</v>
+      </c>
+      <c r="D53" s="153">
+        <v>1281</v>
+      </c>
+      <c r="E53" s="153">
+        <v>1266</v>
+      </c>
+      <c r="F53" s="388">
+        <v>537</v>
+      </c>
+      <c r="G53" s="62">
+        <v>291</v>
+      </c>
+      <c r="H53" s="389">
+        <v>352</v>
+      </c>
+      <c r="I53" s="362">
+        <v>273</v>
+      </c>
+      <c r="J53" s="42">
+        <v>310</v>
+      </c>
+      <c r="K53" s="42">
+        <v>152</v>
+      </c>
+      <c r="L53" s="390">
+        <v>62</v>
+      </c>
+      <c r="M53" s="391">
+        <v>58</v>
+      </c>
+      <c r="N53" s="360">
+        <v>202</v>
+      </c>
+      <c r="O53" s="392">
+        <v>23</v>
+      </c>
+      <c r="P53" s="110">
+        <v>324</v>
+      </c>
+      <c r="Q53" s="392">
+        <v>25</v>
+      </c>
+      <c r="R53" s="393">
+        <v>21</v>
+      </c>
+      <c r="S53" s="102">
+        <v>191</v>
+      </c>
+      <c r="T53" s="306">
+        <v>292</v>
+      </c>
+      <c r="U53" s="145">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A54" s="336">
+        <v>946</v>
+      </c>
+      <c r="B54" s="74">
+        <v>775</v>
+      </c>
+      <c r="C54" s="87">
+        <v>1007</v>
+      </c>
+      <c r="D54" s="81">
+        <v>953</v>
+      </c>
+      <c r="E54" s="117">
+        <v>950</v>
+      </c>
+      <c r="F54" s="266">
+        <v>721</v>
+      </c>
+      <c r="G54" s="49">
+        <v>375</v>
+      </c>
+      <c r="H54" s="394">
+        <v>446</v>
+      </c>
+      <c r="I54" s="185">
+        <v>503</v>
+      </c>
+      <c r="J54" s="141">
+        <v>559</v>
+      </c>
+      <c r="K54" s="395">
+        <v>499</v>
+      </c>
+      <c r="L54" s="86">
+        <v>441</v>
+      </c>
+      <c r="M54" s="356">
+        <v>442</v>
+      </c>
+      <c r="N54" s="63">
+        <v>555</v>
+      </c>
+      <c r="O54" s="254">
+        <v>212</v>
+      </c>
+      <c r="P54" s="255">
+        <v>641</v>
+      </c>
+      <c r="Q54" s="57">
+        <v>207</v>
+      </c>
+      <c r="R54" s="106">
+        <v>256</v>
+      </c>
+      <c r="S54" s="110">
+        <v>390</v>
+      </c>
+      <c r="T54" s="261">
+        <v>428</v>
+      </c>
+      <c r="U54" s="306">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A55" s="72">
+        <v>881</v>
+      </c>
+      <c r="B55" s="256">
+        <v>750</v>
+      </c>
+      <c r="C55" s="190">
+        <v>959</v>
+      </c>
+      <c r="D55" s="37">
+        <v>865</v>
+      </c>
+      <c r="E55" s="67">
+        <v>962</v>
+      </c>
+      <c r="F55" s="285">
+        <v>642</v>
+      </c>
+      <c r="G55" s="139">
+        <v>316</v>
+      </c>
+      <c r="H55" s="69">
+        <v>508</v>
+      </c>
+      <c r="I55" s="160">
+        <v>457</v>
+      </c>
+      <c r="J55" s="90">
+        <v>589</v>
+      </c>
+      <c r="K55" s="171">
+        <v>386</v>
+      </c>
+      <c r="L55" s="117">
+        <v>428</v>
+      </c>
+      <c r="M55" s="242">
+        <v>406</v>
+      </c>
+      <c r="N55" s="68">
+        <v>516</v>
+      </c>
+      <c r="O55" s="274">
+        <v>170</v>
+      </c>
+      <c r="P55" s="396">
+        <v>569</v>
+      </c>
+      <c r="Q55" s="125">
+        <v>232</v>
+      </c>
+      <c r="R55" s="124">
+        <v>290</v>
+      </c>
+      <c r="S55" s="297">
+        <v>393</v>
+      </c>
+      <c r="T55" s="245">
+        <v>389</v>
+      </c>
+      <c r="U55" s="397">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A56" s="60">
+        <v>861</v>
+      </c>
+      <c r="B56" s="139">
+        <v>719</v>
+      </c>
+      <c r="C56" s="79">
+        <v>947</v>
+      </c>
+      <c r="D56" s="45">
+        <v>913</v>
+      </c>
+      <c r="E56" s="190">
+        <v>931</v>
+      </c>
+      <c r="F56" s="49">
+        <v>705</v>
+      </c>
+      <c r="G56" s="49">
+        <v>376</v>
+      </c>
+      <c r="H56" s="72">
+        <v>441</v>
+      </c>
+      <c r="I56" s="123">
+        <v>474</v>
+      </c>
+      <c r="J56" s="137">
+        <v>545</v>
+      </c>
+      <c r="K56" s="161">
+        <v>453</v>
+      </c>
+      <c r="L56" s="46">
+        <v>384</v>
+      </c>
+      <c r="M56" s="103">
+        <v>415</v>
+      </c>
+      <c r="N56" s="234">
+        <v>638</v>
+      </c>
+      <c r="O56" s="274">
+        <v>170</v>
+      </c>
+      <c r="P56" s="65">
+        <v>581</v>
+      </c>
+      <c r="Q56" s="125">
+        <v>232</v>
+      </c>
+      <c r="R56" s="122">
+        <v>276</v>
+      </c>
+      <c r="S56" s="273">
+        <v>531</v>
+      </c>
+      <c r="T56" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U56" s="146">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A57" s="69">
+        <v>909</v>
+      </c>
+      <c r="B57" s="345">
+        <v>792</v>
+      </c>
+      <c r="C57" s="343">
+        <v>1166</v>
+      </c>
+      <c r="D57" s="72">
+        <v>947</v>
+      </c>
+      <c r="E57" s="152">
+        <v>978</v>
+      </c>
+      <c r="F57" s="222">
+        <v>740</v>
+      </c>
+      <c r="G57" s="273">
+        <v>423</v>
+      </c>
+      <c r="H57" s="66">
+        <v>419</v>
+      </c>
+      <c r="I57" s="182">
+        <v>508</v>
+      </c>
+      <c r="J57" s="261">
+        <v>568</v>
+      </c>
+      <c r="K57" s="236">
+        <v>476</v>
+      </c>
+      <c r="L57" s="46">
+        <v>383</v>
+      </c>
+      <c r="M57" s="137">
+        <v>372</v>
+      </c>
+      <c r="N57" s="191">
+        <v>677</v>
+      </c>
+      <c r="O57" s="347">
+        <v>223</v>
+      </c>
+      <c r="P57" s="201">
+        <v>681</v>
+      </c>
+      <c r="Q57" s="378">
+        <v>228</v>
+      </c>
+      <c r="R57" s="43">
+        <v>338</v>
+      </c>
+      <c r="S57" s="313">
+        <v>556</v>
+      </c>
+      <c r="T57" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U57" s="71">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A58" s="232">
+        <v>874</v>
+      </c>
+      <c r="B58" s="101">
+        <v>720</v>
+      </c>
+      <c r="C58" s="58">
+        <v>841</v>
+      </c>
+      <c r="D58" s="398">
+        <v>752</v>
+      </c>
+      <c r="E58" s="139">
+        <v>842</v>
+      </c>
+      <c r="F58" s="399">
+        <v>489</v>
+      </c>
+      <c r="G58" s="89">
+        <v>301</v>
+      </c>
+      <c r="H58" s="165">
+        <v>496</v>
+      </c>
+      <c r="I58" s="114">
+        <v>431</v>
+      </c>
+      <c r="J58" s="235">
+        <v>575</v>
+      </c>
+      <c r="K58" s="171">
+        <v>386</v>
+      </c>
+      <c r="L58" s="60">
+        <v>379</v>
+      </c>
+      <c r="M58" s="52">
+        <v>322</v>
+      </c>
+      <c r="N58" s="98">
+        <v>293</v>
+      </c>
+      <c r="O58" s="83">
+        <v>258</v>
+      </c>
+      <c r="P58" s="142">
+        <v>472</v>
+      </c>
+      <c r="Q58" s="387">
+        <v>193</v>
+      </c>
+      <c r="R58" s="348">
+        <v>139</v>
+      </c>
+      <c r="S58" s="263">
+        <v>308</v>
+      </c>
+      <c r="T58" s="159">
+        <v>284</v>
+      </c>
+      <c r="U58" s="57">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A59" s="137">
+        <v>857</v>
+      </c>
+      <c r="B59" s="107">
+        <v>723</v>
+      </c>
+      <c r="C59" s="41">
+        <v>912</v>
+      </c>
+      <c r="D59" s="253">
+        <v>781</v>
+      </c>
+      <c r="E59" s="315">
+        <v>966</v>
+      </c>
+      <c r="F59" s="349">
+        <v>600</v>
+      </c>
+      <c r="G59" s="62">
+        <v>291</v>
+      </c>
+      <c r="H59" s="273">
+        <v>454</v>
+      </c>
+      <c r="I59" s="237">
+        <v>364</v>
+      </c>
+      <c r="J59" s="400">
+        <v>529</v>
+      </c>
+      <c r="K59" s="401">
+        <v>214</v>
+      </c>
+      <c r="L59" s="402">
+        <v>147</v>
+      </c>
+      <c r="M59" s="403">
+        <v>65</v>
+      </c>
+      <c r="N59" s="300">
+        <v>156</v>
+      </c>
+      <c r="O59" s="404">
+        <v>8</v>
+      </c>
+      <c r="P59" s="61">
+        <v>163</v>
+      </c>
+      <c r="Q59" s="405">
+        <v>6</v>
+      </c>
+      <c r="R59" s="42">
+        <v>-24</v>
+      </c>
+      <c r="S59" s="391">
+        <v>98</v>
+      </c>
+      <c r="T59" s="143">
+        <v>213</v>
+      </c>
+      <c r="U59" s="171">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A60" s="406">
+        <v>842</v>
+      </c>
+      <c r="B60" s="72">
+        <v>755</v>
+      </c>
+      <c r="C60" s="315">
+        <v>986</v>
+      </c>
+      <c r="D60" s="45">
+        <v>913</v>
+      </c>
+      <c r="E60" s="66">
+        <v>942</v>
+      </c>
+      <c r="F60" s="214">
+        <v>763</v>
+      </c>
+      <c r="G60" s="111">
+        <v>356</v>
+      </c>
+      <c r="H60" s="312">
+        <v>345</v>
+      </c>
+      <c r="I60" s="378">
+        <v>368</v>
+      </c>
+      <c r="J60" s="48">
+        <v>552</v>
+      </c>
+      <c r="K60" s="407">
+        <v>515</v>
+      </c>
+      <c r="L60" s="115">
+        <v>430</v>
+      </c>
+      <c r="M60" s="256">
+        <v>432</v>
+      </c>
+      <c r="N60" s="199">
+        <v>525</v>
+      </c>
+      <c r="O60" s="271">
+        <v>242</v>
+      </c>
+      <c r="P60" s="408">
+        <v>765</v>
+      </c>
+      <c r="Q60" s="52">
+        <v>322</v>
+      </c>
+      <c r="R60" s="53">
+        <v>406</v>
+      </c>
+      <c r="S60" s="192">
+        <v>604</v>
+      </c>
+      <c r="T60" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U60" s="229">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A61" s="133">
+        <v>760</v>
+      </c>
+      <c r="B61" s="409">
+        <v>639</v>
+      </c>
+      <c r="C61" s="410">
+        <v>852</v>
+      </c>
+      <c r="D61" s="250">
+        <v>821</v>
+      </c>
+      <c r="E61" s="110">
+        <v>836</v>
+      </c>
+      <c r="F61" s="411">
+        <v>597</v>
+      </c>
+      <c r="G61" s="43">
+        <v>325</v>
+      </c>
+      <c r="H61" s="175">
+        <v>374</v>
+      </c>
+      <c r="I61" s="173">
+        <v>423</v>
+      </c>
+      <c r="J61" s="124">
+        <v>496</v>
+      </c>
+      <c r="K61" s="52">
+        <v>410</v>
+      </c>
+      <c r="L61" s="283">
+        <v>336</v>
+      </c>
+      <c r="M61" s="283">
+        <v>334</v>
+      </c>
+      <c r="N61" s="264">
+        <v>489</v>
+      </c>
+      <c r="O61" s="299">
+        <v>148</v>
+      </c>
+      <c r="P61" s="139">
+        <v>326</v>
+      </c>
+      <c r="Q61" s="99">
+        <v>238</v>
+      </c>
+      <c r="R61" s="138">
+        <v>162</v>
+      </c>
+      <c r="S61" s="155">
+        <v>236</v>
+      </c>
+      <c r="T61" s="252">
+        <v>376</v>
+      </c>
+      <c r="U61" s="110">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A62" s="113">
+        <v>885.25</v>
+      </c>
+      <c r="B62" s="412">
+        <v>793</v>
+      </c>
+      <c r="C62" s="222">
+        <v>1051</v>
+      </c>
+      <c r="D62" s="302">
+        <v>1062</v>
+      </c>
+      <c r="E62" s="42">
+        <v>1050</v>
+      </c>
+      <c r="F62" s="113">
+        <v>718</v>
+      </c>
+      <c r="G62" s="68">
+        <v>448</v>
+      </c>
+      <c r="H62" s="334">
+        <v>716</v>
+      </c>
+      <c r="I62" s="413">
+        <v>493</v>
+      </c>
+      <c r="J62" s="216">
+        <v>745</v>
+      </c>
+      <c r="K62" s="137">
+        <v>449</v>
+      </c>
+      <c r="L62" s="326">
+        <v>724</v>
+      </c>
+      <c r="M62" s="195">
+        <v>533</v>
+      </c>
+      <c r="N62" s="365">
+        <v>730</v>
+      </c>
+      <c r="O62" s="111">
+        <v>368</v>
+      </c>
+      <c r="P62" s="407">
+        <v>912</v>
+      </c>
+      <c r="Q62" s="118">
+        <v>521</v>
+      </c>
+      <c r="R62" s="414">
+        <v>531</v>
+      </c>
+      <c r="S62" s="230">
+        <v>919</v>
+      </c>
+      <c r="T62" s="316">
+        <v>754</v>
+      </c>
+      <c r="U62" s="415">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A63" s="153">
+        <v>1017.25</v>
+      </c>
+      <c r="B63" s="416">
+        <v>896</v>
+      </c>
+      <c r="C63" s="187">
+        <v>1165</v>
+      </c>
+      <c r="D63" s="417">
+        <v>1165</v>
+      </c>
+      <c r="E63" s="153">
+        <v>1158</v>
+      </c>
+      <c r="F63" s="216">
+        <v>775</v>
+      </c>
+      <c r="G63" s="81">
+        <v>418</v>
+      </c>
+      <c r="H63" s="182">
+        <v>621</v>
+      </c>
+      <c r="I63" s="341">
+        <v>545</v>
+      </c>
+      <c r="J63" s="85">
+        <v>814</v>
+      </c>
+      <c r="K63" s="408">
+        <v>500</v>
+      </c>
+      <c r="L63" s="201">
+        <v>681</v>
+      </c>
+      <c r="M63" s="325">
+        <v>577</v>
+      </c>
+      <c r="N63" s="418">
+        <v>792</v>
+      </c>
+      <c r="O63" s="45">
+        <v>395</v>
+      </c>
+      <c r="P63" s="407">
+        <v>909</v>
+      </c>
+      <c r="Q63" s="131">
+        <v>573</v>
+      </c>
+      <c r="R63" s="419">
+        <v>514</v>
+      </c>
+      <c r="S63" s="209">
+        <v>947</v>
+      </c>
+      <c r="T63" s="420">
+        <v>851</v>
+      </c>
+      <c r="U63" s="343">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A64" s="220">
+        <v>980.25</v>
+      </c>
+      <c r="B64" s="421">
+        <v>868</v>
+      </c>
+      <c r="C64" s="218">
+        <v>1149</v>
+      </c>
+      <c r="D64" s="228">
+        <v>1143</v>
+      </c>
+      <c r="E64" s="366">
+        <v>1127</v>
+      </c>
+      <c r="F64" s="422">
+        <v>720</v>
+      </c>
+      <c r="G64" s="229">
+        <v>468</v>
+      </c>
+      <c r="H64" s="213">
+        <v>764</v>
+      </c>
+      <c r="I64" s="423">
+        <v>536</v>
+      </c>
+      <c r="J64" s="416">
+        <v>817</v>
+      </c>
+      <c r="K64" s="413">
+        <v>489</v>
+      </c>
+      <c r="L64" s="332">
+        <v>658</v>
+      </c>
+      <c r="M64" s="325">
+        <v>576</v>
+      </c>
+      <c r="N64" s="418">
+        <v>793</v>
+      </c>
+      <c r="O64" s="84">
+        <v>394</v>
+      </c>
+      <c r="P64" s="424">
+        <v>993</v>
+      </c>
+      <c r="Q64" s="87">
+        <v>505</v>
+      </c>
+      <c r="R64" s="425">
+        <v>476</v>
+      </c>
+      <c r="S64" s="426">
+        <v>834</v>
+      </c>
+      <c r="T64" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U64" s="255">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A65" s="69">
+        <v>909.25</v>
+      </c>
+      <c r="B65" s="234">
+        <v>803</v>
+      </c>
+      <c r="C65" s="427">
+        <v>1073</v>
+      </c>
+      <c r="D65" s="240">
+        <v>1060</v>
+      </c>
+      <c r="E65" s="428">
+        <v>1060</v>
+      </c>
+      <c r="F65" s="284">
+        <v>752</v>
+      </c>
+      <c r="G65" s="68">
+        <v>448</v>
+      </c>
+      <c r="H65" s="230">
+        <v>728</v>
+      </c>
+      <c r="I65" s="228">
+        <v>512</v>
+      </c>
+      <c r="J65" s="310">
+        <v>776</v>
+      </c>
+      <c r="K65" s="49">
+        <v>460</v>
+      </c>
+      <c r="L65" s="205">
+        <v>664</v>
+      </c>
+      <c r="M65" s="73">
+        <v>548</v>
+      </c>
+      <c r="N65" s="214">
+        <v>749</v>
+      </c>
+      <c r="O65" s="245">
+        <v>375</v>
+      </c>
+      <c r="P65" s="156">
+        <v>960</v>
+      </c>
+      <c r="Q65" s="74">
+        <v>530</v>
+      </c>
+      <c r="R65" s="166">
+        <v>523</v>
+      </c>
+      <c r="S65" s="213">
+        <v>972</v>
+      </c>
+      <c r="T65" s="429">
+        <v>889</v>
+      </c>
+      <c r="U65" s="153">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66" s="71">
+        <v>880</v>
+      </c>
+      <c r="B66" s="283">
+        <v>722</v>
+      </c>
+      <c r="C66" s="74">
+        <v>1018</v>
+      </c>
+      <c r="D66" s="261">
+        <v>927</v>
+      </c>
+      <c r="E66" s="117">
+        <v>950</v>
+      </c>
+      <c r="F66" s="430">
+        <v>776</v>
+      </c>
+      <c r="G66" s="292">
+        <v>414</v>
+      </c>
+      <c r="H66" s="181">
+        <v>344</v>
+      </c>
+      <c r="I66" s="318">
+        <v>501</v>
+      </c>
+      <c r="J66" s="49">
+        <v>555</v>
+      </c>
+      <c r="K66" s="191">
+        <v>490</v>
+      </c>
+      <c r="L66" s="140">
+        <v>437</v>
+      </c>
+      <c r="M66" s="72">
+        <v>452</v>
+      </c>
+      <c r="N66" s="234">
+        <v>636</v>
+      </c>
+      <c r="O66" s="312">
+        <v>254</v>
+      </c>
+      <c r="P66" s="336">
+        <v>719</v>
+      </c>
+      <c r="Q66" s="37">
+        <v>316</v>
+      </c>
+      <c r="R66" s="160">
+        <v>425</v>
+      </c>
+      <c r="S66" s="224">
+        <v>628</v>
+      </c>
+      <c r="T66" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U66" s="63">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A67" s="431">
+        <v>894</v>
+      </c>
+      <c r="B67" s="141">
+        <v>742</v>
+      </c>
+      <c r="C67" s="291">
+        <v>1003</v>
+      </c>
+      <c r="D67" s="45">
+        <v>913</v>
+      </c>
+      <c r="E67" s="235">
+        <v>955</v>
+      </c>
+      <c r="F67" s="251">
+        <v>675</v>
+      </c>
+      <c r="G67" s="48">
+        <v>373</v>
+      </c>
+      <c r="H67" s="72">
+        <v>442</v>
+      </c>
+      <c r="I67" s="427">
+        <v>492</v>
+      </c>
+      <c r="J67" s="72">
+        <v>581</v>
+      </c>
+      <c r="K67" s="240">
+        <v>487</v>
+      </c>
+      <c r="L67" s="140">
+        <v>437</v>
+      </c>
+      <c r="M67" s="292">
+        <v>457</v>
+      </c>
+      <c r="N67" s="192">
+        <v>559</v>
+      </c>
+      <c r="O67" s="280">
+        <v>236</v>
+      </c>
+      <c r="P67" s="136">
+        <v>581</v>
+      </c>
+      <c r="Q67" s="242">
+        <v>406</v>
+      </c>
+      <c r="R67" s="142">
+        <v>471</v>
+      </c>
+      <c r="S67" s="412">
+        <v>633</v>
+      </c>
+      <c r="T67" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U67" s="192">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A68" s="126">
+        <v>793</v>
+      </c>
+      <c r="B68" s="82">
+        <v>683</v>
+      </c>
+      <c r="C68" s="66">
+        <v>968</v>
+      </c>
+      <c r="D68" s="394">
+        <v>951</v>
+      </c>
+      <c r="E68" s="252">
+        <v>890</v>
+      </c>
+      <c r="F68" s="173">
+        <v>673</v>
+      </c>
+      <c r="G68" s="53">
+        <v>385</v>
+      </c>
+      <c r="H68" s="352">
+        <v>319</v>
+      </c>
+      <c r="I68" s="129">
+        <v>468</v>
+      </c>
+      <c r="J68" s="89">
+        <v>510</v>
+      </c>
+      <c r="K68" s="124">
+        <v>387</v>
+      </c>
+      <c r="L68" s="306">
+        <v>279</v>
+      </c>
+      <c r="M68" s="377">
+        <v>286</v>
+      </c>
+      <c r="N68" s="215">
+        <v>589</v>
+      </c>
+      <c r="O68" s="279">
+        <v>123</v>
+      </c>
+      <c r="P68" s="133">
+        <v>214</v>
+      </c>
+      <c r="Q68" s="432">
+        <v>182</v>
+      </c>
+      <c r="R68" s="409">
+        <v>82</v>
+      </c>
+      <c r="S68" s="380">
+        <v>70</v>
+      </c>
+      <c r="T68" s="253">
+        <v>183</v>
+      </c>
+      <c r="U68" s="168">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A69" s="60">
+        <v>862</v>
+      </c>
+      <c r="B69" s="256">
+        <v>751</v>
+      </c>
+      <c r="C69" s="49">
+        <v>958</v>
+      </c>
+      <c r="D69" s="37">
+        <v>866</v>
+      </c>
+      <c r="E69" s="256">
+        <v>952</v>
+      </c>
+      <c r="F69" s="283">
+        <v>675</v>
+      </c>
+      <c r="G69" s="245">
+        <v>362</v>
+      </c>
+      <c r="H69" s="192">
+        <v>503</v>
+      </c>
+      <c r="I69" s="117">
+        <v>457</v>
+      </c>
+      <c r="J69" s="81">
+        <v>586</v>
+      </c>
+      <c r="K69" s="100">
+        <v>407</v>
+      </c>
+      <c r="L69" s="233">
+        <v>402</v>
+      </c>
+      <c r="M69" s="48">
+        <v>387</v>
+      </c>
+      <c r="N69" s="266">
+        <v>483</v>
+      </c>
+      <c r="O69" s="138">
+        <v>160</v>
+      </c>
+      <c r="P69" s="74">
+        <v>529</v>
+      </c>
+      <c r="Q69" s="148">
+        <v>295</v>
+      </c>
+      <c r="R69" s="41">
+        <v>285</v>
+      </c>
+      <c r="S69" s="245">
+        <v>446</v>
+      </c>
+      <c r="T69" s="86">
+        <v>446</v>
+      </c>
+      <c r="U69" s="95">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A70" s="118">
+        <v>898</v>
+      </c>
+      <c r="B70" s="142">
+        <v>761</v>
+      </c>
+      <c r="C70" s="87">
+        <v>1008</v>
+      </c>
+      <c r="D70" s="433">
+        <v>676</v>
+      </c>
+      <c r="E70" s="90">
+        <v>973</v>
+      </c>
+      <c r="F70" s="297">
+        <v>670</v>
+      </c>
+      <c r="G70" s="103">
+        <v>392</v>
+      </c>
+      <c r="H70" s="409">
+        <v>268</v>
+      </c>
+      <c r="I70" s="116">
+        <v>434</v>
+      </c>
+      <c r="J70" s="81">
+        <v>586</v>
+      </c>
+      <c r="K70" s="158">
+        <v>466</v>
+      </c>
+      <c r="L70" s="48">
+        <v>384</v>
+      </c>
+      <c r="M70" s="48">
+        <v>386</v>
+      </c>
+      <c r="N70" s="67">
+        <v>448</v>
+      </c>
+      <c r="O70" s="130">
+        <v>198</v>
+      </c>
+      <c r="P70" s="281">
+        <v>398</v>
+      </c>
+      <c r="Q70" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="R70" s="50">
+        <v>258</v>
+      </c>
+      <c r="S70" s="43">
+        <v>337</v>
+      </c>
+      <c r="T70" s="103">
+        <v>417</v>
+      </c>
+      <c r="U70" s="96">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A71" s="232">
+        <v>874</v>
+      </c>
+      <c r="B71" s="434">
+        <v>731</v>
+      </c>
+      <c r="C71" s="47">
+        <v>948</v>
+      </c>
+      <c r="D71" s="116">
+        <v>889</v>
+      </c>
+      <c r="E71" s="233">
+        <v>937</v>
+      </c>
+      <c r="F71" s="239">
+        <v>742</v>
+      </c>
+      <c r="G71" s="45">
+        <v>379</v>
+      </c>
+      <c r="H71" s="256">
+        <v>430</v>
+      </c>
+      <c r="I71" s="54">
+        <v>487</v>
+      </c>
+      <c r="J71" s="47">
+        <v>542</v>
+      </c>
+      <c r="K71" s="319">
+        <v>433</v>
+      </c>
+      <c r="L71" s="269">
+        <v>345</v>
+      </c>
+      <c r="M71" s="52">
+        <v>322</v>
+      </c>
+      <c r="N71" s="256">
+        <v>431</v>
+      </c>
+      <c r="O71" s="435">
+        <v>119</v>
+      </c>
+      <c r="P71" s="61">
+        <v>163</v>
+      </c>
+      <c r="Q71" s="300">
+        <v>155</v>
+      </c>
+      <c r="R71" s="372">
+        <v>40</v>
+      </c>
+      <c r="S71" s="436">
+        <v>44</v>
+      </c>
+      <c r="T71" s="388">
+        <v>102</v>
+      </c>
+      <c r="U71" s="437">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A72" s="124">
+        <v>807</v>
+      </c>
+      <c r="B72" s="75">
+        <v>698</v>
+      </c>
+      <c r="C72" s="43">
+        <v>935</v>
+      </c>
+      <c r="D72" s="49">
+        <v>908</v>
+      </c>
+      <c r="E72" s="78">
+        <v>912</v>
+      </c>
+      <c r="F72" s="312">
+        <v>629</v>
+      </c>
+      <c r="G72" s="438">
+        <v>653</v>
+      </c>
+      <c r="H72" s="71">
+        <v>437</v>
+      </c>
+      <c r="I72" s="42">
+        <v>235</v>
+      </c>
+      <c r="J72" s="135">
+        <v>504</v>
+      </c>
+      <c r="K72" s="108">
+        <v>394</v>
+      </c>
+      <c r="L72" s="122">
+        <v>275</v>
+      </c>
+      <c r="M72" s="354">
+        <v>290</v>
+      </c>
+      <c r="N72" s="53">
+        <v>405</v>
+      </c>
+      <c r="O72" s="102">
+        <v>141</v>
+      </c>
+      <c r="P72" s="235">
+        <v>436</v>
+      </c>
+      <c r="Q72" s="439">
+        <v>132</v>
+      </c>
+      <c r="R72" s="353">
+        <v>130</v>
+      </c>
+      <c r="S72" s="272">
+        <v>373</v>
+      </c>
+      <c r="T72" s="242">
+        <v>420</v>
+      </c>
+      <c r="U72" s="100">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" s="166">
+        <v>899</v>
+      </c>
+      <c r="B73" s="425">
+        <v>762</v>
+      </c>
+      <c r="C73" s="144">
+        <v>1055</v>
+      </c>
+      <c r="D73" s="86">
+        <v>939</v>
+      </c>
+      <c r="E73" s="81">
+        <v>969</v>
+      </c>
+      <c r="F73" s="337">
+        <v>755</v>
+      </c>
+      <c r="G73" s="72">
+        <v>411</v>
+      </c>
+      <c r="H73" s="269">
+        <v>384</v>
+      </c>
+      <c r="I73" s="239">
+        <v>486</v>
+      </c>
+      <c r="J73" s="319">
+        <v>533</v>
+      </c>
+      <c r="K73" s="117">
+        <v>464</v>
+      </c>
+      <c r="L73" s="48">
+        <v>386</v>
+      </c>
+      <c r="M73" s="49">
+        <v>390</v>
+      </c>
+      <c r="N73" s="86">
+        <v>439</v>
+      </c>
+      <c r="O73" s="143">
+        <v>203</v>
+      </c>
+      <c r="P73" s="294">
+        <v>488</v>
+      </c>
+      <c r="Q73" s="411">
+        <v>200</v>
+      </c>
+      <c r="R73" s="186">
+        <v>220</v>
+      </c>
+      <c r="S73" s="49">
+        <v>460</v>
+      </c>
+      <c r="T73" s="142">
+        <v>472</v>
+      </c>
+      <c r="U73" s="126">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A74" s="440">
+        <v>935</v>
+      </c>
+      <c r="B74" s="212">
+        <v>788</v>
+      </c>
+      <c r="C74" s="267">
+        <v>1032</v>
+      </c>
+      <c r="D74" s="158">
+        <v>943</v>
+      </c>
+      <c r="E74" s="152">
+        <v>977</v>
+      </c>
+      <c r="F74" s="214">
+        <v>763</v>
+      </c>
+      <c r="G74" s="42">
+        <v>-31</v>
+      </c>
+      <c r="H74" s="319">
+        <v>388</v>
+      </c>
+      <c r="I74" s="69">
+        <v>478</v>
+      </c>
+      <c r="J74" s="86">
+        <v>577</v>
+      </c>
+      <c r="K74" s="153">
+        <v>527</v>
+      </c>
+      <c r="L74" s="261">
+        <v>418</v>
+      </c>
+      <c r="M74" s="53">
+        <v>404</v>
+      </c>
+      <c r="N74" s="425">
+        <v>475</v>
+      </c>
+      <c r="O74" s="130">
+        <v>199</v>
+      </c>
+      <c r="P74" s="65">
+        <v>585</v>
+      </c>
+      <c r="Q74" s="441">
+        <v>174</v>
+      </c>
+      <c r="R74" s="387">
+        <v>194</v>
+      </c>
+      <c r="S74" s="64">
+        <v>322</v>
+      </c>
+      <c r="T74" s="48">
+        <v>401</v>
+      </c>
+      <c r="U74" s="442">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A75" s="354">
+        <v>806</v>
+      </c>
+      <c r="B75" s="126">
+        <v>700</v>
+      </c>
+      <c r="C75" s="93">
+        <v>895</v>
+      </c>
+      <c r="D75" s="176">
+        <v>863</v>
+      </c>
+      <c r="E75" s="137">
+        <v>907</v>
+      </c>
+      <c r="F75" s="116">
+        <v>687</v>
+      </c>
+      <c r="G75" s="79">
+        <v>351</v>
+      </c>
+      <c r="H75" s="106">
+        <v>345</v>
+      </c>
+      <c r="I75" s="124">
+        <v>401</v>
+      </c>
+      <c r="J75" s="268">
+        <v>421</v>
+      </c>
+      <c r="K75" s="157">
+        <v>324</v>
+      </c>
+      <c r="L75" s="237">
+        <v>220</v>
+      </c>
+      <c r="M75" s="157">
+        <v>206</v>
+      </c>
+      <c r="N75" s="41">
+        <v>285</v>
+      </c>
+      <c r="O75" s="443">
+        <v>84</v>
+      </c>
+      <c r="P75" s="107">
+        <v>340</v>
+      </c>
+      <c r="Q75" s="437">
+        <v>95</v>
+      </c>
+      <c r="R75" s="444">
+        <v>55</v>
+      </c>
+      <c r="S75" s="445">
+        <v>182</v>
+      </c>
+      <c r="T75" s="48">
+        <v>401</v>
+      </c>
+      <c r="U75" s="252">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A76" s="51">
+        <v>851</v>
+      </c>
+      <c r="B76" s="51">
+        <v>722</v>
+      </c>
+      <c r="C76" s="51">
+        <v>944</v>
+      </c>
+      <c r="D76" s="51">
+        <v>878</v>
+      </c>
+      <c r="E76" s="51">
+        <v>904</v>
+      </c>
+      <c r="F76" s="51">
+        <v>671</v>
+      </c>
+      <c r="G76" s="51">
+        <v>366</v>
+      </c>
+      <c r="H76" s="51">
+        <v>395</v>
+      </c>
+      <c r="I76" s="51">
+        <v>429</v>
+      </c>
+      <c r="J76" s="51">
+        <v>537</v>
+      </c>
+      <c r="K76" s="51">
+        <v>439</v>
+      </c>
+      <c r="L76" s="51">
+        <v>371</v>
+      </c>
+      <c r="M76" s="51">
+        <v>367</v>
+      </c>
+      <c r="N76" s="51">
+        <v>475</v>
+      </c>
+      <c r="O76" s="51">
+        <v>182</v>
+      </c>
+      <c r="P76" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q76" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="R76" s="51">
+        <v>242</v>
+      </c>
+      <c r="S76" s="51">
+        <v>386</v>
+      </c>
+      <c r="T76" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U76" s="51">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A77" s="383">
+        <v>59</v>
+      </c>
+      <c r="B77" s="383">
+        <v>45</v>
+      </c>
+      <c r="C77" s="383">
+        <v>76</v>
+      </c>
+      <c r="D77" s="383">
+        <v>109</v>
+      </c>
+      <c r="E77" s="383">
+        <v>109</v>
+      </c>
+      <c r="F77" s="383">
+        <v>82</v>
+      </c>
+      <c r="G77" s="383">
+        <v>87</v>
+      </c>
+      <c r="H77" s="383">
+        <v>78</v>
+      </c>
+      <c r="I77" s="383">
+        <v>57</v>
+      </c>
+      <c r="J77" s="383">
+        <v>52</v>
+      </c>
+      <c r="K77" s="383">
+        <v>68</v>
+      </c>
+      <c r="L77" s="383">
+        <v>79</v>
+      </c>
+      <c r="M77" s="383">
+        <v>91</v>
+      </c>
+      <c r="N77" s="383">
+        <v>117</v>
+      </c>
+      <c r="O77" s="383">
+        <v>57</v>
+      </c>
+      <c r="P77" s="383" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q77" s="383" t="s">
+        <v>34</v>
+      </c>
+      <c r="R77" s="383">
+        <v>140</v>
+      </c>
+      <c r="S77" s="383">
+        <v>187</v>
+      </c>
+      <c r="T77" s="383" t="s">
+        <v>34</v>
+      </c>
+      <c r="U77" s="383">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A78" s="35">
+        <v>7</v>
+      </c>
+      <c r="B78" s="35">
+        <v>6</v>
+      </c>
+      <c r="C78" s="35">
+        <v>8</v>
+      </c>
+      <c r="D78" s="35">
+        <v>12</v>
+      </c>
+      <c r="E78" s="35">
+        <v>12</v>
+      </c>
+      <c r="F78" s="35">
+        <v>12</v>
+      </c>
+      <c r="G78" s="35">
+        <v>24</v>
+      </c>
+      <c r="H78" s="35">
+        <v>20</v>
+      </c>
+      <c r="I78" s="35">
+        <v>13</v>
+      </c>
+      <c r="J78" s="35">
+        <v>10</v>
+      </c>
+      <c r="K78" s="35">
+        <v>16</v>
+      </c>
+      <c r="L78" s="35">
+        <v>21</v>
+      </c>
+      <c r="M78" s="35">
+        <v>25</v>
+      </c>
+      <c r="N78" s="35">
+        <v>25</v>
+      </c>
+      <c r="O78" s="35">
+        <v>31</v>
+      </c>
+      <c r="P78" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q78" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R78" s="35">
+        <v>58</v>
+      </c>
+      <c r="S78" s="35">
+        <v>48</v>
+      </c>
+      <c r="T78" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U78" s="35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A79" s="35">
+        <v>956</v>
+      </c>
+      <c r="B79" s="35">
+        <v>855</v>
+      </c>
+      <c r="C79" s="35">
+        <v>1128</v>
+      </c>
+      <c r="D79" s="35">
+        <v>1129</v>
+      </c>
+      <c r="E79" s="35">
+        <v>1117</v>
+      </c>
+      <c r="F79" s="35">
+        <v>751</v>
+      </c>
+      <c r="G79" s="35">
+        <v>458</v>
+      </c>
+      <c r="H79" s="35">
+        <v>715</v>
+      </c>
+      <c r="I79" s="35">
+        <v>523</v>
+      </c>
+      <c r="J79" s="35">
+        <v>795</v>
+      </c>
+      <c r="K79" s="35">
+        <v>477</v>
+      </c>
+      <c r="L79" s="35">
+        <v>694</v>
+      </c>
+      <c r="M79" s="35">
+        <v>559</v>
+      </c>
+      <c r="N79" s="35">
+        <v>767</v>
+      </c>
+      <c r="O79" s="35">
+        <v>385</v>
+      </c>
+      <c r="P79" s="35">
+        <v>961</v>
+      </c>
+      <c r="Q79" s="35">
+        <v>541</v>
+      </c>
+      <c r="R79" s="35">
+        <v>526</v>
+      </c>
+      <c r="S79" s="35">
+        <v>920</v>
+      </c>
+      <c r="T79" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U79" s="35">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A80" s="35">
+        <v>52</v>
+      </c>
+      <c r="B80" s="35">
+        <v>45</v>
+      </c>
+      <c r="C80" s="35">
+        <v>58</v>
+      </c>
+      <c r="D80" s="35">
+        <v>65</v>
+      </c>
+      <c r="E80" s="35">
+        <v>57</v>
+      </c>
+      <c r="F80" s="35">
+        <v>33</v>
+      </c>
+      <c r="G80" s="35">
+        <v>23</v>
+      </c>
+      <c r="H80" s="35">
+        <v>47</v>
+      </c>
+      <c r="I80" s="35">
+        <v>22</v>
+      </c>
+      <c r="J80" s="35">
+        <v>30</v>
+      </c>
+      <c r="K80" s="35">
+        <v>21</v>
+      </c>
+      <c r="L80" s="35">
+        <v>36</v>
+      </c>
+      <c r="M80" s="35">
+        <v>25</v>
+      </c>
+      <c r="N80" s="35">
+        <v>38</v>
+      </c>
+      <c r="O80" s="35">
+        <v>19</v>
+      </c>
+      <c r="P80" s="35">
+        <v>42</v>
+      </c>
+      <c r="Q80" s="35">
+        <v>29</v>
+      </c>
+      <c r="R80" s="35">
+        <v>30</v>
+      </c>
+      <c r="S80" s="35">
+        <v>46</v>
+      </c>
+      <c r="T80" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U80" s="35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A81" s="35">
+        <v>5</v>
+      </c>
+      <c r="B81" s="35">
+        <v>5</v>
+      </c>
+      <c r="C81" s="35">
+        <v>5</v>
+      </c>
+      <c r="D81" s="35">
+        <v>6</v>
+      </c>
+      <c r="E81" s="35">
+        <v>5</v>
+      </c>
+      <c r="F81" s="35">
+        <v>4</v>
+      </c>
+      <c r="G81" s="35">
+        <v>5</v>
+      </c>
+      <c r="H81" s="35">
+        <v>7</v>
+      </c>
+      <c r="I81" s="35">
+        <v>4</v>
+      </c>
+      <c r="J81" s="35">
+        <v>4</v>
+      </c>
+      <c r="K81" s="35">
+        <v>4</v>
+      </c>
+      <c r="L81" s="35">
+        <v>5</v>
+      </c>
+      <c r="M81" s="35">
+        <v>4</v>
+      </c>
+      <c r="N81" s="35">
+        <v>5</v>
+      </c>
+      <c r="O81" s="35">
+        <v>5</v>
+      </c>
+      <c r="P81" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="35">
+        <v>5</v>
+      </c>
+      <c r="R81" s="35">
+        <v>6</v>
+      </c>
+      <c r="S81" s="35">
+        <v>5</v>
+      </c>
+      <c r="T81" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U81" s="35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A82" s="35">
+        <v>104</v>
+      </c>
+      <c r="B82" s="35">
+        <v>134</v>
+      </c>
+      <c r="C82" s="35">
+        <v>183</v>
+      </c>
+      <c r="D82" s="35">
+        <v>251</v>
+      </c>
+      <c r="E82" s="35">
+        <v>214</v>
+      </c>
+      <c r="F82" s="35">
+        <v>80</v>
+      </c>
+      <c r="G82" s="35">
+        <v>92</v>
+      </c>
+      <c r="H82" s="35">
+        <v>320</v>
+      </c>
+      <c r="I82" s="35">
+        <v>94</v>
+      </c>
+      <c r="J82" s="35">
+        <v>257</v>
+      </c>
+      <c r="K82" s="35">
+        <v>37</v>
+      </c>
+      <c r="L82" s="35">
+        <v>323</v>
+      </c>
+      <c r="M82" s="35">
+        <v>192</v>
+      </c>
+      <c r="N82" s="35">
+        <v>291</v>
+      </c>
+      <c r="O82" s="35">
+        <v>203</v>
+      </c>
+      <c r="P82" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q82" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R82" s="35">
+        <v>284</v>
+      </c>
+      <c r="S82" s="35">
+        <v>534</v>
+      </c>
+      <c r="T82" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U82" s="35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86" s="35"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" s="35"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90" s="446">
+        <v>790</v>
+      </c>
+      <c r="B90" s="153">
+        <v>743</v>
+      </c>
+      <c r="C90" s="447">
+        <v>812</v>
+      </c>
+      <c r="D90" s="448">
+        <v>903</v>
+      </c>
+      <c r="E90" s="449">
+        <v>766</v>
+      </c>
+      <c r="F90" s="450">
+        <v>810</v>
+      </c>
+      <c r="G90" s="451">
+        <v>838</v>
+      </c>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A91" s="452">
+        <v>804</v>
+      </c>
+      <c r="B91" s="453">
+        <v>808</v>
+      </c>
+      <c r="C91" s="454">
+        <v>836</v>
+      </c>
+      <c r="D91" s="455">
+        <v>954</v>
+      </c>
+      <c r="E91" s="456">
+        <v>908</v>
+      </c>
+      <c r="F91" s="457">
+        <v>832</v>
+      </c>
+      <c r="G91" s="458">
+        <v>902</v>
+      </c>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A92" s="49">
+        <v>857</v>
+      </c>
+      <c r="B92" s="459">
+        <v>852</v>
+      </c>
+      <c r="C92" s="42">
+        <v>981</v>
+      </c>
+      <c r="D92" s="158">
+        <v>847</v>
+      </c>
+      <c r="E92" s="460">
+        <v>915</v>
+      </c>
+      <c r="F92" s="461">
+        <v>905</v>
+      </c>
+      <c r="G92" s="462">
+        <v>863</v>
+      </c>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A93" s="463">
+        <v>777</v>
+      </c>
+      <c r="B93" s="464">
+        <v>880</v>
+      </c>
+      <c r="C93" s="465">
+        <v>900</v>
+      </c>
+      <c r="D93" s="466">
+        <v>844</v>
+      </c>
+      <c r="E93" s="427">
+        <v>809</v>
+      </c>
+      <c r="F93" s="464">
+        <v>880</v>
+      </c>
+      <c r="G93" s="427">
+        <v>809</v>
+      </c>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A94" s="467">
+        <v>946</v>
+      </c>
+      <c r="B94" s="468">
+        <v>881</v>
+      </c>
+      <c r="C94" s="469">
+        <v>861</v>
+      </c>
+      <c r="D94" s="470">
+        <v>909</v>
+      </c>
+      <c r="E94" s="471">
+        <v>874</v>
+      </c>
+      <c r="F94" s="49">
+        <v>857</v>
+      </c>
+      <c r="G94" s="472">
+        <v>842</v>
+      </c>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A95" s="473">
+        <v>899</v>
+      </c>
+      <c r="B95" s="248">
+        <v>807</v>
+      </c>
+      <c r="C95" s="471">
+        <v>874</v>
+      </c>
+      <c r="D95" s="474">
+        <v>898</v>
+      </c>
+      <c r="E95" s="475">
+        <v>862</v>
+      </c>
+      <c r="F95" s="287">
+        <v>793</v>
+      </c>
+      <c r="G95" s="476">
+        <v>894</v>
+      </c>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+    </row>
+    <row r="97" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="35"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A98" s="477">
+        <v>70</v>
+      </c>
+      <c r="B98" s="477">
+        <v>69</v>
+      </c>
+      <c r="C98" s="477">
+        <v>68</v>
+      </c>
+      <c r="D98" s="477">
+        <v>67</v>
+      </c>
+      <c r="E98" s="478">
+        <v>66</v>
+      </c>
+      <c r="F98" s="477">
+        <v>65</v>
+      </c>
+      <c r="G98" s="477">
+        <v>64</v>
+      </c>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="35"/>
+      <c r="U98" s="35"/>
+    </row>
+    <row r="99" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="479">
+        <v>51</v>
+      </c>
+      <c r="B99" s="479">
+        <v>52</v>
+      </c>
+      <c r="C99" s="479">
+        <v>53</v>
+      </c>
+      <c r="D99" s="479">
+        <v>54</v>
+      </c>
+      <c r="E99" s="480">
+        <v>55</v>
+      </c>
+      <c r="F99" s="479">
+        <v>56</v>
+      </c>
+      <c r="G99" s="479">
+        <v>57</v>
+      </c>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="35"/>
+      <c r="U99" s="35"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A100" s="35">
+        <v>46</v>
+      </c>
+      <c r="B100" s="35">
+        <v>45</v>
+      </c>
+      <c r="C100" s="35">
+        <v>44</v>
+      </c>
+      <c r="D100" s="35">
+        <v>43</v>
+      </c>
+      <c r="E100" s="481">
+        <v>42</v>
+      </c>
+      <c r="F100" s="35">
+        <v>41</v>
+      </c>
+      <c r="G100" s="35">
+        <v>40</v>
+      </c>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="35"/>
+      <c r="U100" s="35"/>
+    </row>
+    <row r="101" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="479">
+        <v>27</v>
+      </c>
+      <c r="B101" s="479">
+        <v>28</v>
+      </c>
+      <c r="C101" s="479">
+        <v>29</v>
+      </c>
+      <c r="D101" s="479">
+        <v>30</v>
+      </c>
+      <c r="E101" s="480">
+        <v>31</v>
+      </c>
+      <c r="F101" s="479">
+        <v>32</v>
+      </c>
+      <c r="G101" s="479">
+        <v>33</v>
+      </c>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A102" s="477">
+        <v>22</v>
+      </c>
+      <c r="B102" s="477">
+        <v>21</v>
+      </c>
+      <c r="C102" s="477">
+        <v>20</v>
+      </c>
+      <c r="D102" s="482">
+        <v>19</v>
+      </c>
+      <c r="E102" s="35">
+        <v>18</v>
+      </c>
+      <c r="F102" s="35">
+        <v>17</v>
+      </c>
+      <c r="G102" s="35">
+        <v>16</v>
+      </c>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="35"/>
+      <c r="U102" s="35"/>
+    </row>
+    <row r="103" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="479">
+        <v>3</v>
+      </c>
+      <c r="B103" s="479">
+        <v>4</v>
+      </c>
+      <c r="C103" s="479">
+        <v>5</v>
+      </c>
+      <c r="D103" s="483">
+        <v>6</v>
+      </c>
+      <c r="E103" s="479">
+        <v>7</v>
+      </c>
+      <c r="F103" s="479">
+        <v>8</v>
+      </c>
+      <c r="G103" s="479">
+        <v>9</v>
+      </c>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="35"/>
+      <c r="U103" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7B2B13-A060-429A-B262-9AE217C973FB}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/eoso.xlsx
+++ b/eoso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmigu\OneDrive\Escritorio\MOP2\MOP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC95D03-6600-4B3A-9B9B-3700D3DA9F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726ECE71-5186-49CC-9693-CFB49511F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
   </bookViews>
@@ -13026,7 +13026,7 @@
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/eoso.xlsx
+++ b/eoso.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmigu\OneDrive\Escritorio\MOP2\MOP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/onavarrete_earth_ac_cr/Documents/FLORIDALMA_DEF/MOP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726ECE71-5186-49CC-9693-CFB49511F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{26AE54C9-10F6-4C8C-95F7-B7523230C2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED913C5-43EE-4D94-AFE3-5071F3DA8631}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
   </bookViews>
   <sheets>
     <sheet name="07022024" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="newd" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
     <sheet name="Drainge" sheetId="5" r:id="rId4"/>
     <sheet name="labels" sheetId="2" r:id="rId5"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
   <si>
     <t>whole plant weight (g)</t>
   </si>
@@ -105,9 +105,6 @@
     <t>DM</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>net weight (drainage and irrigation in ml/day)</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>#VALUE!</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>whole</t>
   </si>
 </sst>
 </file>
@@ -3625,9 +3628,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3665,7 +3668,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3771,7 +3774,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3913,7 +3916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3924,7 +3927,7 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3940,7 +3943,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>4</v>
@@ -11713,16 +11716,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EB23DA-C988-4571-87B0-77AA64A01D8C}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="29" t="s">
         <v>4</v>
       </c>
@@ -11735,11 +11740,8 @@
       <c r="E1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
@@ -11756,7 +11758,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>16</v>
       </c>
@@ -11773,7 +11775,7 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
@@ -11790,7 +11792,7 @@
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
@@ -11807,7 +11809,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>16</v>
       </c>
@@ -11824,7 +11826,7 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>16</v>
       </c>
@@ -11841,7 +11843,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -11858,7 +11860,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>16</v>
       </c>
@@ -11875,7 +11877,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>16</v>
       </c>
@@ -11892,7 +11894,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>16</v>
       </c>
@@ -11909,7 +11911,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>16</v>
       </c>
@@ -11926,7 +11928,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
@@ -11943,7 +11945,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
@@ -11960,7 +11962,7 @@
         <v>11.31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>17</v>
       </c>
@@ -11977,7 +11979,7 @@
         <v>10.66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
@@ -12145,6 +12147,234 @@
       </c>
       <c r="E25" s="31">
         <v>10.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="31">
+        <v>1</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>D14+D2</f>
+        <v>2.266</v>
+      </c>
+      <c r="E26">
+        <f>E14+E2</f>
+        <v>20.240000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="33">
+        <v>2</v>
+      </c>
+      <c r="C27" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:E37" si="0">D15+D3</f>
+        <v>2.52</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="33">
+        <v>3</v>
+      </c>
+      <c r="C28" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>3.0949999999999998</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>17.770000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="33">
+        <v>4</v>
+      </c>
+      <c r="C29" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="33">
+        <v>5</v>
+      </c>
+      <c r="C30" s="33">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="33">
+        <v>6</v>
+      </c>
+      <c r="C31" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>3.887</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>18.490000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="33">
+        <v>7</v>
+      </c>
+      <c r="C32" s="31">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.2750000000000004</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>21.990000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="33">
+        <v>8</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2.9630000000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>22.310000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="33">
+        <v>9</v>
+      </c>
+      <c r="C34" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3.9809999999999999</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>19.43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="33">
+        <v>10</v>
+      </c>
+      <c r="C35" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>20.509999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="33">
+        <v>11</v>
+      </c>
+      <c r="C36" s="33">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>3.6980000000000004</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="33">
+        <v>12</v>
+      </c>
+      <c r="C37" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>20.549999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -13025,7 +13255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA00F1D-24E5-4471-BBDD-A4C3B9018803}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -13033,7 +13263,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="484" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="484"/>
       <c r="C1" s="484"/>
@@ -13060,14 +13290,14 @@
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
@@ -13120,31 +13350,31 @@
         <v>45622</v>
       </c>
       <c r="L3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="N3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="O3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="P3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="Q3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="R3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="S3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="T3" s="35" t="s">
         <v>32</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="U3" s="35">
         <v>45326</v>
@@ -13197,7 +13427,7 @@
         <v>258</v>
       </c>
       <c r="P4" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="52">
         <v>322</v>
@@ -13209,7 +13439,7 @@
         <v>659</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" s="55">
         <v>625</v>
@@ -13274,7 +13504,7 @@
         <v>595</v>
       </c>
       <c r="T5" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U5" s="74">
         <v>544</v>
@@ -13327,7 +13557,7 @@
         <v>260</v>
       </c>
       <c r="P6" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="89">
         <v>312</v>
@@ -13339,7 +13569,7 @@
         <v>529</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6" s="73">
         <v>563</v>
@@ -13457,7 +13687,7 @@
         <v>185</v>
       </c>
       <c r="P8" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="120">
         <v>233</v>
@@ -13599,7 +13829,7 @@
         <v>541</v>
       </c>
       <c r="T10" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U10" s="147">
         <v>524</v>
@@ -13729,7 +13959,7 @@
         <v>575</v>
       </c>
       <c r="T12" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U12" s="63">
         <v>568</v>
@@ -14119,7 +14349,7 @@
         <v>654</v>
       </c>
       <c r="T18" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U18" s="240">
         <v>658</v>
@@ -14379,7 +14609,7 @@
         <v>640</v>
       </c>
       <c r="T22" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U22" s="212">
         <v>593</v>
@@ -14509,7 +14739,7 @@
         <v>511</v>
       </c>
       <c r="T24" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U24" s="270">
         <v>512</v>
@@ -14769,7 +14999,7 @@
         <v>578</v>
       </c>
       <c r="T28" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U28" s="232">
         <v>435</v>
@@ -14834,7 +15064,7 @@
         <v>650</v>
       </c>
       <c r="T29" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U29" s="87">
         <v>520</v>
@@ -15094,7 +15324,7 @@
         <v>552</v>
       </c>
       <c r="T33" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U33" s="270">
         <v>511</v>
@@ -15874,7 +16104,7 @@
         <v>654</v>
       </c>
       <c r="T45" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U45" s="63">
         <v>570</v>
@@ -15939,7 +16169,7 @@
         <v>541</v>
       </c>
       <c r="T46" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U46" s="129">
         <v>512</v>
@@ -16069,7 +16299,7 @@
         <v>526</v>
       </c>
       <c r="T48" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U48" s="123">
         <v>555</v>
@@ -16262,7 +16492,7 @@
         <v>712</v>
       </c>
       <c r="T51" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U51" s="212">
         <v>593</v>
@@ -16587,7 +16817,7 @@
         <v>531</v>
       </c>
       <c r="T56" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U56" s="146">
         <v>500</v>
@@ -16652,7 +16882,7 @@
         <v>556</v>
       </c>
       <c r="T57" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U57" s="71">
         <v>460</v>
@@ -16847,7 +17077,7 @@
         <v>604</v>
       </c>
       <c r="T60" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U60" s="229">
         <v>567</v>
@@ -17107,7 +17337,7 @@
         <v>834</v>
       </c>
       <c r="T64" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U64" s="255">
         <v>656</v>
@@ -17237,7 +17467,7 @@
         <v>628</v>
       </c>
       <c r="T66" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U66" s="63">
         <v>571</v>
@@ -17302,7 +17532,7 @@
         <v>633</v>
       </c>
       <c r="T67" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U67" s="192">
         <v>574</v>
@@ -17488,7 +17718,7 @@
         <v>398</v>
       </c>
       <c r="Q70" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R70" s="50">
         <v>258</v>
@@ -17875,10 +18105,10 @@
         <v>182</v>
       </c>
       <c r="P76" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q76" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R76" s="51">
         <v>242</v>
@@ -17887,7 +18117,7 @@
         <v>386</v>
       </c>
       <c r="T76" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U76" s="51">
         <v>363</v>
@@ -17940,10 +18170,10 @@
         <v>57</v>
       </c>
       <c r="P77" s="383" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q77" s="383" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R77" s="383">
         <v>140</v>
@@ -17952,7 +18182,7 @@
         <v>187</v>
       </c>
       <c r="T77" s="383" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U77" s="383">
         <v>158</v>
@@ -18005,10 +18235,10 @@
         <v>31</v>
       </c>
       <c r="P78" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q78" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R78" s="35">
         <v>58</v>
@@ -18017,7 +18247,7 @@
         <v>48</v>
       </c>
       <c r="T78" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U78" s="35">
         <v>44</v>
@@ -18082,7 +18312,7 @@
         <v>920</v>
       </c>
       <c r="T79" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U79" s="35">
         <v>831</v>
@@ -18147,7 +18377,7 @@
         <v>46</v>
       </c>
       <c r="T80" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U80" s="35">
         <v>131</v>
@@ -18212,7 +18442,7 @@
         <v>5</v>
       </c>
       <c r="T81" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U81" s="35">
         <v>16</v>
@@ -18265,10 +18495,10 @@
         <v>203</v>
       </c>
       <c r="P82" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q82" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R82" s="35">
         <v>284</v>
@@ -18277,7 +18507,7 @@
         <v>534</v>
       </c>
       <c r="T82" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U82" s="35">
         <v>469</v>

--- a/eoso.xlsx
+++ b/eoso.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/onavarrete_earth_ac_cr/Documents/FLORIDALMA_DEF/MOP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{26AE54C9-10F6-4C8C-95F7-B7523230C2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED913C5-43EE-4D94-AFE3-5071F3DA8631}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{26AE54C9-10F6-4C8C-95F7-B7523230C2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51297E13-322C-4AFB-BA27-C90B4E46E69B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
   </bookViews>
   <sheets>
     <sheet name="07022024" sheetId="1" r:id="rId1"/>
-    <sheet name="newd" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
-    <sheet name="Drainge" sheetId="5" r:id="rId4"/>
-    <sheet name="labels" sheetId="2" r:id="rId5"/>
+    <sheet name="lw" sheetId="4" r:id="rId2"/>
+    <sheet name="ow" sheetId="6" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId4"/>
+    <sheet name="Drainge" sheetId="5" r:id="rId5"/>
+    <sheet name="labels" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'07022024'!$A$1:$H$289</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
   <si>
     <t>whole plant weight (g)</t>
   </si>
@@ -148,9 +149,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>whole</t>
   </si>
 </sst>
 </file>
@@ -3927,7 +3925,7 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4212,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="27">
         <v>8</v>
@@ -4239,7 +4237,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C12" s="27">
         <v>8</v>
@@ -4264,7 +4262,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="27">
         <v>8</v>
@@ -4285,7 +4283,7 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C14" s="27">
         <v>2</v>
@@ -4312,7 +4310,7 @@
         <v>0.9</v>
       </c>
       <c r="B15" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C15" s="27">
         <v>2</v>
@@ -4339,7 +4337,7 @@
         <v>0.9</v>
       </c>
       <c r="B16" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C16" s="27">
         <v>2</v>
@@ -6780,7 +6778,7 @@
         <v>0.9</v>
       </c>
       <c r="B107" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C107" s="27">
         <v>2</v>
@@ -6807,7 +6805,7 @@
         <v>0.9</v>
       </c>
       <c r="B108" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C108" s="27">
         <v>2</v>
@@ -6834,7 +6832,7 @@
         <v>0.9</v>
       </c>
       <c r="B109" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C109" s="27">
         <v>2</v>
@@ -6861,7 +6859,7 @@
         <v>0.9</v>
       </c>
       <c r="B110" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C110" s="27">
         <v>2</v>
@@ -6888,7 +6886,7 @@
         <v>0.9</v>
       </c>
       <c r="B111" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C111" s="27">
         <v>2</v>
@@ -7050,7 +7048,7 @@
         <v>4</v>
       </c>
       <c r="B117" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C117" s="27">
         <v>8</v>
@@ -7077,7 +7075,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C118" s="27">
         <v>8</v>
@@ -7104,7 +7102,7 @@
         <v>4</v>
       </c>
       <c r="B119" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C119" s="27">
         <v>8</v>
@@ -7131,7 +7129,7 @@
         <v>4</v>
       </c>
       <c r="B120" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C120" s="27">
         <v>8</v>
@@ -7158,7 +7156,7 @@
         <v>4</v>
       </c>
       <c r="B121" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C121" s="27">
         <v>8</v>
@@ -7860,7 +7858,7 @@
         <v>0.9</v>
       </c>
       <c r="B147" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C147" s="27">
         <v>2</v>
@@ -7887,7 +7885,7 @@
         <v>0.9</v>
       </c>
       <c r="B148" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C148" s="27">
         <v>2</v>
@@ -7914,7 +7912,7 @@
         <v>0.9</v>
       </c>
       <c r="B149" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C149" s="27">
         <v>2</v>
@@ -7941,7 +7939,7 @@
         <v>0.9</v>
       </c>
       <c r="B150" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C150" s="27">
         <v>2</v>
@@ -7968,7 +7966,7 @@
         <v>0.9</v>
       </c>
       <c r="B151" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C151" s="27">
         <v>2</v>
@@ -7995,7 +7993,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C152" s="27">
         <v>8</v>
@@ -8022,7 +8020,7 @@
         <v>4</v>
       </c>
       <c r="B153" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C153" s="27">
         <v>8</v>
@@ -8049,7 +8047,7 @@
         <v>4</v>
       </c>
       <c r="B154" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C154" s="27">
         <v>8</v>
@@ -8076,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="B155" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C155" s="27">
         <v>8</v>
@@ -8103,7 +8101,7 @@
         <v>4</v>
       </c>
       <c r="B156" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C156" s="27">
         <v>8</v>
@@ -9426,7 +9424,7 @@
         <v>4</v>
       </c>
       <c r="B205" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C205" s="27">
         <v>8</v>
@@ -9453,7 +9451,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C206" s="27">
         <v>8</v>
@@ -9480,7 +9478,7 @@
         <v>4</v>
       </c>
       <c r="B207" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C207" s="27">
         <v>8</v>
@@ -9507,7 +9505,7 @@
         <v>4</v>
       </c>
       <c r="B208" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C208" s="27">
         <v>8</v>
@@ -9534,7 +9532,7 @@
         <v>4</v>
       </c>
       <c r="B209" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C209" s="27">
         <v>8</v>
@@ -10101,7 +10099,7 @@
         <v>4</v>
       </c>
       <c r="B230" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C230" s="27">
         <v>8</v>
@@ -10128,7 +10126,7 @@
         <v>4</v>
       </c>
       <c r="B231" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C231" s="27">
         <v>8</v>
@@ -10155,7 +10153,7 @@
         <v>4</v>
       </c>
       <c r="B232" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C232" s="27">
         <v>8</v>
@@ -10182,7 +10180,7 @@
         <v>4</v>
       </c>
       <c r="B233" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C233" s="27">
         <v>8</v>
@@ -10209,7 +10207,7 @@
         <v>4</v>
       </c>
       <c r="B234" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C234" s="27">
         <v>8</v>
@@ -10230,7 +10228,7 @@
         <v>0.9</v>
       </c>
       <c r="B235" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C235" s="27">
         <v>2</v>
@@ -10257,7 +10255,7 @@
         <v>0.9</v>
       </c>
       <c r="B236" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C236" s="27">
         <v>2</v>
@@ -10284,7 +10282,7 @@
         <v>0.9</v>
       </c>
       <c r="B237" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C237" s="27">
         <v>2</v>
@@ -10311,7 +10309,7 @@
         <v>0.9</v>
       </c>
       <c r="B238" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C238" s="27">
         <v>2</v>
@@ -10338,7 +10336,7 @@
         <v>0.9</v>
       </c>
       <c r="B239" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C239" s="27">
         <v>2</v>
@@ -11173,7 +11171,7 @@
         <v>0.9</v>
       </c>
       <c r="B270" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C270" s="27">
         <v>2</v>
@@ -11200,7 +11198,7 @@
         <v>0.9</v>
       </c>
       <c r="B271" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C271" s="27">
         <v>2</v>
@@ -11227,7 +11225,7 @@
         <v>0.9</v>
       </c>
       <c r="B272" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C272" s="27">
         <v>2</v>
@@ -11254,7 +11252,7 @@
         <v>0.9</v>
       </c>
       <c r="B273" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C273" s="27">
         <v>2</v>
@@ -11281,7 +11279,7 @@
         <v>0.9</v>
       </c>
       <c r="B274" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C274" s="27">
         <v>2</v>
@@ -11716,10 +11714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EB23DA-C988-4571-87B0-77AA64A01D8C}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11743,7 +11741,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="31">
         <v>1</v>
@@ -11751,16 +11749,16 @@
       <c r="C2" s="31">
         <v>0</v>
       </c>
-      <c r="D2" s="31">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="E2" s="32">
-        <v>8.93</v>
+      <c r="D2" s="33">
+        <v>1.694</v>
+      </c>
+      <c r="E2" s="33">
+        <v>11.31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="33">
         <v>2</v>
@@ -11768,16 +11766,16 @@
       <c r="C3" s="33">
         <v>0.25</v>
       </c>
-      <c r="D3" s="31">
-        <v>0.751</v>
-      </c>
-      <c r="E3" s="32">
-        <v>9.59</v>
+      <c r="D3" s="33">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="E3" s="31">
+        <v>10.66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="33">
         <v>3</v>
@@ -11785,16 +11783,16 @@
       <c r="C4" s="33">
         <v>0.5</v>
       </c>
-      <c r="D4" s="31">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="E4" s="32">
-        <v>8.4600000000000009</v>
+      <c r="D4" s="33">
+        <v>2.1269999999999998</v>
+      </c>
+      <c r="E4" s="31">
+        <v>9.31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="33">
         <v>4</v>
@@ -11803,15 +11801,15 @@
         <v>0.75</v>
       </c>
       <c r="D5" s="31">
-        <v>1.5149999999999999</v>
+        <v>2.363</v>
       </c>
       <c r="E5" s="32">
-        <v>7.82</v>
+        <v>16.739999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="33">
         <v>5</v>
@@ -11819,16 +11817,16 @@
       <c r="C6" s="33">
         <v>1</v>
       </c>
-      <c r="D6" s="31">
-        <v>1.175</v>
-      </c>
-      <c r="E6" s="32">
-        <v>9.31</v>
+      <c r="D6" s="33">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="E6" s="31">
+        <v>10.1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="33">
         <v>6</v>
@@ -11837,15 +11835,15 @@
         <v>1.25</v>
       </c>
       <c r="D7" s="33">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="E7" s="32">
-        <v>9.1</v>
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="E7" s="31">
+        <v>9.39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="33">
         <v>7</v>
@@ -11853,16 +11851,16 @@
       <c r="C8" s="31">
         <v>0</v>
       </c>
-      <c r="D8" s="31">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="E8" s="32">
-        <v>10.83</v>
+      <c r="D8" s="33">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="E8" s="31">
+        <v>11.16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="33">
         <v>8</v>
@@ -11871,15 +11869,15 @@
         <v>0.25</v>
       </c>
       <c r="D9" s="33">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="E9" s="31">
-        <v>11.06</v>
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="E9" s="33">
+        <v>11.25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="33">
         <v>9</v>
@@ -11887,16 +11885,16 @@
       <c r="C10" s="33">
         <v>0.5</v>
       </c>
-      <c r="D10" s="31">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="E10" s="32">
-        <v>9.84</v>
+      <c r="D10" s="33">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="E10" s="31">
+        <v>9.59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="33">
         <v>10</v>
@@ -11905,15 +11903,15 @@
         <v>0.75</v>
       </c>
       <c r="D11" s="33">
-        <v>1.1279999999999999</v>
+        <v>2.5230000000000001</v>
       </c>
       <c r="E11" s="31">
-        <v>10.26</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="33">
         <v>11</v>
@@ -11921,16 +11919,16 @@
       <c r="C12" s="33">
         <v>1</v>
       </c>
-      <c r="D12" s="33">
-        <v>1.099</v>
+      <c r="D12" s="31">
+        <v>2.5990000000000002</v>
       </c>
       <c r="E12" s="31">
-        <v>9.69</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="33">
         <v>12</v>
@@ -11938,443 +11936,11 @@
       <c r="C13" s="33">
         <v>1.25</v>
       </c>
-      <c r="D13" s="33">
-        <v>1.1659999999999999</v>
+      <c r="D13" s="31">
+        <v>2.5609999999999999</v>
       </c>
       <c r="E13" s="31">
-        <v>10.19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="31">
-        <v>1</v>
-      </c>
-      <c r="C14" s="31">
-        <v>0</v>
-      </c>
-      <c r="D14" s="33">
-        <v>1.694</v>
-      </c>
-      <c r="E14" s="33">
-        <v>11.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="33">
-        <v>2</v>
-      </c>
-      <c r="C15" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="D15" s="33">
-        <v>1.7689999999999999</v>
-      </c>
-      <c r="E15" s="31">
-        <v>10.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="33">
-        <v>3</v>
-      </c>
-      <c r="C16" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="33">
-        <v>2.1269999999999998</v>
-      </c>
-      <c r="E16" s="31">
-        <v>9.31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="33">
-        <v>4</v>
-      </c>
-      <c r="C17" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="31">
-        <v>2.363</v>
-      </c>
-      <c r="E17" s="32">
-        <v>16.739999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33">
-        <v>5</v>
-      </c>
-      <c r="C18" s="33">
-        <v>1</v>
-      </c>
-      <c r="D18" s="33">
-        <v>2.8250000000000002</v>
-      </c>
-      <c r="E18" s="31">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="33">
-        <v>6</v>
-      </c>
-      <c r="C19" s="33">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="33">
-        <v>2.7490000000000001</v>
-      </c>
-      <c r="E19" s="31">
-        <v>9.39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="33">
-        <v>7</v>
-      </c>
-      <c r="C20" s="31">
-        <v>0</v>
-      </c>
-      <c r="D20" s="33">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="E20" s="31">
-        <v>11.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="33">
-        <v>8</v>
-      </c>
-      <c r="C21" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="D21" s="33">
-        <v>2.2490000000000001</v>
-      </c>
-      <c r="E21" s="33">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="33">
-        <v>9</v>
-      </c>
-      <c r="C22" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="33">
-        <v>2.6269999999999998</v>
-      </c>
-      <c r="E22" s="31">
-        <v>9.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="33">
-        <v>10</v>
-      </c>
-      <c r="C23" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="D23" s="33">
-        <v>2.5230000000000001</v>
-      </c>
-      <c r="E23" s="31">
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="33">
-        <v>11</v>
-      </c>
-      <c r="C24" s="33">
-        <v>1</v>
-      </c>
-      <c r="D24" s="31">
-        <v>2.5990000000000002</v>
-      </c>
-      <c r="E24" s="31">
-        <v>10.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="33">
-        <v>12</v>
-      </c>
-      <c r="C25" s="33">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="31">
-        <v>2.5609999999999999</v>
-      </c>
-      <c r="E25" s="31">
         <v>10.36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="31">
-        <v>1</v>
-      </c>
-      <c r="C26" s="31">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <f>D14+D2</f>
-        <v>2.266</v>
-      </c>
-      <c r="E26">
-        <f>E14+E2</f>
-        <v>20.240000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="33">
-        <v>2</v>
-      </c>
-      <c r="C27" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ref="D27:E37" si="0">D15+D3</f>
-        <v>2.52</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="33">
-        <v>3</v>
-      </c>
-      <c r="C28" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>3.0949999999999998</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>17.770000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="33">
-        <v>4</v>
-      </c>
-      <c r="C29" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>3.8780000000000001</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>24.56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="33">
-        <v>5</v>
-      </c>
-      <c r="C30" s="33">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>19.41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="33">
-        <v>6</v>
-      </c>
-      <c r="C31" s="33">
-        <v>1.25</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>3.887</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>18.490000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="33">
-        <v>7</v>
-      </c>
-      <c r="C32" s="31">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>2.2750000000000004</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>21.990000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="33">
-        <v>8</v>
-      </c>
-      <c r="C33" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>2.9630000000000001</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>22.310000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="33">
-        <v>9</v>
-      </c>
-      <c r="C34" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>3.9809999999999999</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>19.43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="33">
-        <v>10</v>
-      </c>
-      <c r="C35" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>3.6509999999999998</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>20.509999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="33">
-        <v>11</v>
-      </c>
-      <c r="C36" s="33">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>3.6980000000000004</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="33">
-        <v>12</v>
-      </c>
-      <c r="C37" s="33">
-        <v>1.25</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>3.7269999999999999</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>20.549999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -12383,10 +11949,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E6A36-5F35-43F7-B89A-DCDBDEB1C846}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E2" s="32">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.751</v>
+      </c>
+      <c r="E3" s="32">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E4" s="32">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="E5" s="32">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="33">
+        <v>5</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1.175</v>
+      </c>
+      <c r="E6" s="32">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="33">
+        <v>6</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="E7" s="32">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="33">
+        <v>7</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E8" s="32">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="33">
+        <v>8</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E9" s="31">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="33">
+        <v>9</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="E10" s="32">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="33">
+        <v>10</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="E11" s="31">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="33">
+        <v>11</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1.099</v>
+      </c>
+      <c r="E12" s="31">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33">
+        <v>12</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="E13" s="31">
+        <v>10.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3488B-DBB5-4F89-BDC8-810101439028}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -13251,12 +13053,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA00F1D-24E5-4471-BBDD-A4C3B9018803}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19165,7 +18967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7B2B13-A060-429A-B262-9AE217C973FB}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/eoso.xlsx
+++ b/eoso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/onavarrete_earth_ac_cr/Documents/FLORIDALMA_DEF/MOP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{26AE54C9-10F6-4C8C-95F7-B7523230C2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51297E13-322C-4AFB-BA27-C90B4E46E69B}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{26AE54C9-10F6-4C8C-95F7-B7523230C2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75F2ED8B-A8D6-4857-9E9A-6436E7CE5510}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{6FD296B6-E2D6-467F-B6D2-1A33FB9DC938}"/>
   </bookViews>
   <sheets>
     <sheet name="07022024" sheetId="1" r:id="rId1"/>
@@ -45,15 +45,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
-  <si>
-    <t>whole plant weight (g)</t>
-  </si>
-  <si>
-    <t>onion weight (g)</t>
-  </si>
-  <si>
-    <t>leaves weight (g)</t>
-  </si>
   <si>
     <t>plant</t>
   </si>
@@ -149,6 +140,15 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>Peso de toda la planta (g)</t>
+  </si>
+  <si>
+    <t>Peso de las cebollas (g)</t>
+  </si>
+  <si>
+    <t>Peso de las hojas (g)</t>
   </si>
 </sst>
 </file>
@@ -3938,28 +3938,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -11724,24 +11724,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="31">
         <v>1</v>
@@ -11758,7 +11758,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="33">
         <v>2</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="33">
         <v>3</v>
@@ -11792,7 +11792,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="33">
         <v>4</v>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="33">
         <v>5</v>
@@ -11826,7 +11826,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="33">
         <v>6</v>
@@ -11843,7 +11843,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="33">
         <v>7</v>
@@ -11860,7 +11860,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="33">
         <v>8</v>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="33">
         <v>9</v>
@@ -11894,7 +11894,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="33">
         <v>10</v>
@@ -11911,7 +11911,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="33">
         <v>11</v>
@@ -11928,7 +11928,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="33">
         <v>12</v>
@@ -11960,24 +11960,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="31">
         <v>1</v>
@@ -11994,7 +11994,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="33">
         <v>2</v>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="33">
         <v>3</v>
@@ -12028,7 +12028,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="33">
         <v>4</v>
@@ -12045,7 +12045,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="33">
         <v>5</v>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="33">
         <v>6</v>
@@ -12079,7 +12079,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="33">
         <v>7</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="33">
         <v>8</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="33">
         <v>9</v>
@@ -12130,7 +12130,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="33">
         <v>10</v>
@@ -12147,7 +12147,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="33">
         <v>11</v>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="33">
         <v>12</v>
@@ -12196,16 +12196,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -13057,7 +13057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA00F1D-24E5-4471-BBDD-A4C3B9018803}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -13065,7 +13065,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="484" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="484"/>
       <c r="C1" s="484"/>
@@ -13092,14 +13092,14 @@
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
@@ -13152,31 +13152,31 @@
         <v>45622</v>
       </c>
       <c r="L3" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="P3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="Q3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="R3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="S3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="T3" s="35" t="s">
         <v>29</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>32</v>
       </c>
       <c r="U3" s="35">
         <v>45326</v>
@@ -13229,7 +13229,7 @@
         <v>258</v>
       </c>
       <c r="P4" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="52">
         <v>322</v>
@@ -13241,7 +13241,7 @@
         <v>659</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U4" s="55">
         <v>625</v>
@@ -13306,7 +13306,7 @@
         <v>595</v>
       </c>
       <c r="T5" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U5" s="74">
         <v>544</v>
@@ -13359,7 +13359,7 @@
         <v>260</v>
       </c>
       <c r="P6" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="89">
         <v>312</v>
@@ -13371,7 +13371,7 @@
         <v>529</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U6" s="73">
         <v>563</v>
@@ -13489,7 +13489,7 @@
         <v>185</v>
       </c>
       <c r="P8" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="120">
         <v>233</v>
@@ -13631,7 +13631,7 @@
         <v>541</v>
       </c>
       <c r="T10" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U10" s="147">
         <v>524</v>
@@ -13761,7 +13761,7 @@
         <v>575</v>
       </c>
       <c r="T12" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U12" s="63">
         <v>568</v>
@@ -14151,7 +14151,7 @@
         <v>654</v>
       </c>
       <c r="T18" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U18" s="240">
         <v>658</v>
@@ -14411,7 +14411,7 @@
         <v>640</v>
       </c>
       <c r="T22" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U22" s="212">
         <v>593</v>
@@ -14541,7 +14541,7 @@
         <v>511</v>
       </c>
       <c r="T24" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U24" s="270">
         <v>512</v>
@@ -14801,7 +14801,7 @@
         <v>578</v>
       </c>
       <c r="T28" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U28" s="232">
         <v>435</v>
@@ -14866,7 +14866,7 @@
         <v>650</v>
       </c>
       <c r="T29" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U29" s="87">
         <v>520</v>
@@ -15126,7 +15126,7 @@
         <v>552</v>
       </c>
       <c r="T33" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U33" s="270">
         <v>511</v>
@@ -15906,7 +15906,7 @@
         <v>654</v>
       </c>
       <c r="T45" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U45" s="63">
         <v>570</v>
@@ -15971,7 +15971,7 @@
         <v>541</v>
       </c>
       <c r="T46" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U46" s="129">
         <v>512</v>
@@ -16101,7 +16101,7 @@
         <v>526</v>
       </c>
       <c r="T48" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U48" s="123">
         <v>555</v>
@@ -16294,7 +16294,7 @@
         <v>712</v>
       </c>
       <c r="T51" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U51" s="212">
         <v>593</v>
@@ -16619,7 +16619,7 @@
         <v>531</v>
       </c>
       <c r="T56" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U56" s="146">
         <v>500</v>
@@ -16684,7 +16684,7 @@
         <v>556</v>
       </c>
       <c r="T57" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U57" s="71">
         <v>460</v>
@@ -16879,7 +16879,7 @@
         <v>604</v>
       </c>
       <c r="T60" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U60" s="229">
         <v>567</v>
@@ -17139,7 +17139,7 @@
         <v>834</v>
       </c>
       <c r="T64" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U64" s="255">
         <v>656</v>
@@ -17269,7 +17269,7 @@
         <v>628</v>
       </c>
       <c r="T66" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U66" s="63">
         <v>571</v>
@@ -17334,7 +17334,7 @@
         <v>633</v>
       </c>
       <c r="T67" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U67" s="192">
         <v>574</v>
@@ -17520,7 +17520,7 @@
         <v>398</v>
       </c>
       <c r="Q70" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R70" s="50">
         <v>258</v>
@@ -17907,10 +17907,10 @@
         <v>182</v>
       </c>
       <c r="P76" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q76" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R76" s="51">
         <v>242</v>
@@ -17919,7 +17919,7 @@
         <v>386</v>
       </c>
       <c r="T76" s="51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U76" s="51">
         <v>363</v>
@@ -17972,10 +17972,10 @@
         <v>57</v>
       </c>
       <c r="P77" s="383" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q77" s="383" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R77" s="383">
         <v>140</v>
@@ -17984,7 +17984,7 @@
         <v>187</v>
       </c>
       <c r="T77" s="383" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U77" s="383">
         <v>158</v>
@@ -18037,10 +18037,10 @@
         <v>31</v>
       </c>
       <c r="P78" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q78" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R78" s="35">
         <v>58</v>
@@ -18049,7 +18049,7 @@
         <v>48</v>
       </c>
       <c r="T78" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U78" s="35">
         <v>44</v>
@@ -18114,7 +18114,7 @@
         <v>920</v>
       </c>
       <c r="T79" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U79" s="35">
         <v>831</v>
@@ -18179,7 +18179,7 @@
         <v>46</v>
       </c>
       <c r="T80" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U80" s="35">
         <v>131</v>
@@ -18244,7 +18244,7 @@
         <v>5</v>
       </c>
       <c r="T81" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U81" s="35">
         <v>16</v>
@@ -18297,10 +18297,10 @@
         <v>203</v>
       </c>
       <c r="P82" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q82" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R82" s="35">
         <v>284</v>
@@ -18309,7 +18309,7 @@
         <v>534</v>
       </c>
       <c r="T82" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U82" s="35">
         <v>469</v>
@@ -18971,42 +18971,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7B2B13-A060-429A-B262-9AE217C973FB}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
